--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_25_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_25_1_replicas_SMOTE.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="336">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>KNN</t>
   </si>
@@ -43,9 +46,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -76,514 +76,787 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.994+/-0.0</t>
-  </si>
-  <si>
-    <t>0.783+/-0.0</t>
-  </si>
-  <si>
-    <t>0.601</t>
-  </si>
-  <si>
-    <t>0.989+/-0.0</t>
-  </si>
-  <si>
-    <t>0.707+/-0.01</t>
+    <t>0.5+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.993+/-0.005</t>
+  </si>
+  <si>
+    <t>0.786+/-0.0</t>
+  </si>
+  <si>
+    <t>0.608</t>
+  </si>
+  <si>
+    <t>0.99+/-0.003</t>
+  </si>
+  <si>
+    <t>0.71+/-0.01</t>
+  </si>
+  <si>
+    <t>0.285</t>
+  </si>
+  <si>
+    <t>0.995+/-0.014</t>
+  </si>
+  <si>
+    <t>0.969+/-0.006</t>
+  </si>
+  <si>
+    <t>0.629</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
+  </si>
+  <si>
+    <t>0.648+/-0.001</t>
+  </si>
+  <si>
+    <t>0.646+/-0.0</t>
+  </si>
+  <si>
+    <t>0.596</t>
+  </si>
+  <si>
+    <t>0.636+/-0.002</t>
+  </si>
+  <si>
+    <t>0.634+/-0.005</t>
   </si>
   <si>
     <t>0.279</t>
   </si>
   <si>
+    <t>0.691+/-0.005</t>
+  </si>
+  <si>
+    <t>0.689+/-0.01</t>
+  </si>
+  <si>
+    <t>0.635</t>
+  </si>
+  <si>
+    <t>0.346+/-0.02</t>
+  </si>
+  <si>
+    <t>0.577+/-0.001</t>
+  </si>
+  <si>
+    <t>0.577+/-0.0</t>
+  </si>
+  <si>
+    <t>0.439</t>
+  </si>
+  <si>
+    <t>0.554+/-0.001</t>
+  </si>
+  <si>
+    <t>0.554+/-0.007</t>
+  </si>
+  <si>
+    <t>0.228</t>
+  </si>
+  <si>
+    <t>0.792+/-0.005</t>
+  </si>
+  <si>
+    <t>0.793+/-0.019</t>
+  </si>
+  <si>
+    <t>0.747</t>
+  </si>
+  <si>
+    <t>0.01+/-0.0</t>
+  </si>
+  <si>
+    <t>0.602+/-0.001</t>
+  </si>
+  <si>
+    <t>0.602+/-0.0</t>
+  </si>
+  <si>
+    <t>0.544</t>
+  </si>
+  <si>
+    <t>0.59+/-0.001</t>
+  </si>
+  <si>
+    <t>0.59+/-0.01</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>0.668+/-0.001</t>
+  </si>
+  <si>
+    <t>0.668+/-0.01</t>
+  </si>
+  <si>
+    <t>0.013+/-0.005</t>
+  </si>
+  <si>
+    <t>0.817+/-0.007</t>
+  </si>
+  <si>
+    <t>0.755+/-0.0</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.799+/-0.017</t>
+  </si>
+  <si>
+    <t>0.735+/-0.014</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.847+/-0.024</t>
+  </si>
+  <si>
+    <t>0.798+/-0.034</t>
+  </si>
+  <si>
+    <t>0.536</t>
+  </si>
+  <si>
+    <t>11.216+/-3.247</t>
+  </si>
+  <si>
+    <t>0.784+/-0.005</t>
+  </si>
+  <si>
+    <t>0.734+/-0.0</t>
+  </si>
+  <si>
+    <t>0.641</t>
+  </si>
+  <si>
+    <t>0.753+/-0.01</t>
+  </si>
+  <si>
+    <t>0.709+/-0.016</t>
+  </si>
+  <si>
+    <t>0.284</t>
+  </si>
+  <si>
+    <t>0.846+/-0.019</t>
+  </si>
+  <si>
+    <t>0.795+/-0.023</t>
+  </si>
+  <si>
+    <t>0.515</t>
+  </si>
+  <si>
+    <t>0.196+/-0.007</t>
+  </si>
+  <si>
+    <t>0.77+/-0.005</t>
+  </si>
+  <si>
+    <t>0.728+/-0.0</t>
+  </si>
+  <si>
+    <t>0.645</t>
+  </si>
+  <si>
+    <t>0.739+/-0.009</t>
+  </si>
+  <si>
+    <t>0.704+/-0.017</t>
+  </si>
+  <si>
+    <t>0.294</t>
+  </si>
+  <si>
+    <t>0.835+/-0.022</t>
+  </si>
+  <si>
+    <t>0.789+/-0.031</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>0.289+/-0.007</t>
+  </si>
+  <si>
+    <t>0.74+/-0.002</t>
+  </si>
+  <si>
+    <t>0.716+/-0.0</t>
+  </si>
+  <si>
+    <t>0.655</t>
+  </si>
+  <si>
+    <t>0.722+/-0.002</t>
+  </si>
+  <si>
+    <t>0.698+/-0.012</t>
+  </si>
+  <si>
+    <t>0.316</t>
+  </si>
+  <si>
+    <t>0.782+/-0.004</t>
+  </si>
+  <si>
+    <t>0.761+/-0.012</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>52.358+/-3.298</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.992+/-0.007</t>
+  </si>
+  <si>
+    <t>0.807+/-0.0</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>0.99+/-0.004</t>
+  </si>
+  <si>
+    <t>0.727+/-0.013</t>
+  </si>
+  <si>
+    <t>0.217</t>
+  </si>
+  <si>
+    <t>0.994+/-0.017</t>
+  </si>
+  <si>
+    <t>0.982+/-0.017</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.652+/-0.002</t>
+  </si>
+  <si>
+    <t>0.65+/-0.0</t>
+  </si>
+  <si>
+    <t>0.617</t>
+  </si>
+  <si>
+    <t>0.645+/-0.002</t>
+  </si>
+  <si>
+    <t>0.643+/-0.013</t>
+  </si>
+  <si>
+    <t>0.224</t>
+  </si>
+  <si>
+    <t>0.676+/-0.002</t>
+  </si>
+  <si>
+    <t>0.674+/-0.027</t>
+  </si>
+  <si>
+    <t>0.631</t>
+  </si>
+  <si>
+    <t>0.462+/-0.023</t>
+  </si>
+  <si>
+    <t>0.584+/-0.001</t>
+  </si>
+  <si>
+    <t>0.582+/-0.0</t>
+  </si>
+  <si>
+    <t>0.447</t>
+  </si>
+  <si>
+    <t>0.562+/-0.001</t>
+  </si>
+  <si>
+    <t>0.56+/-0.01</t>
+  </si>
+  <si>
+    <t>0.175</t>
+  </si>
+  <si>
+    <t>0.762+/-0.005</t>
+  </si>
+  <si>
+    <t>0.76+/-0.019</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>0.011+/-0.002</t>
+  </si>
+  <si>
+    <t>0.611+/-0.002</t>
+  </si>
+  <si>
+    <t>0.61+/-0.0</t>
+  </si>
+  <si>
+    <t>0.547</t>
+  </si>
+  <si>
+    <t>0.597+/-0.002</t>
+  </si>
+  <si>
+    <t>0.597+/-0.016</t>
+  </si>
+  <si>
+    <t>0.192</t>
+  </si>
+  <si>
+    <t>0.683+/-0.002</t>
+  </si>
+  <si>
+    <t>0.681+/-0.022</t>
+  </si>
+  <si>
+    <t>0.016+/-0.009</t>
+  </si>
+  <si>
+    <t>0.845+/-0.006</t>
+  </si>
+  <si>
+    <t>0.782+/-0.0</t>
+  </si>
+  <si>
+    <t>0.688</t>
+  </si>
+  <si>
+    <t>0.817+/-0.014</t>
+  </si>
+  <si>
+    <t>0.752+/-0.018</t>
+  </si>
+  <si>
+    <t>0.231</t>
+  </si>
+  <si>
+    <t>0.89+/-0.021</t>
+  </si>
+  <si>
+    <t>0.843+/-0.024</t>
+  </si>
+  <si>
+    <t>0.466</t>
+  </si>
+  <si>
+    <t>6.123+/-0.956</t>
+  </si>
+  <si>
+    <t>0.821+/-0.008</t>
+  </si>
+  <si>
+    <t>0.773+/-0.0</t>
+  </si>
+  <si>
+    <t>0.763</t>
+  </si>
+  <si>
+    <t>0.863+/-0.013</t>
+  </si>
+  <si>
+    <t>0.808+/-0.02</t>
+  </si>
+  <si>
+    <t>0.271</t>
+  </si>
+  <si>
+    <t>0.764+/-0.033</t>
+  </si>
+  <si>
+    <t>0.717+/-0.035</t>
+  </si>
+  <si>
+    <t>0.344</t>
+  </si>
+  <si>
+    <t>0.198+/-0.006</t>
+  </si>
+  <si>
+    <t>0.804+/-0.005</t>
+  </si>
+  <si>
+    <t>0.764+/-0.0</t>
+  </si>
+  <si>
+    <t>0.761</t>
+  </si>
+  <si>
+    <t>0.854+/-0.028</t>
+  </si>
+  <si>
+    <t>0.809+/-0.029</t>
+  </si>
+  <si>
+    <t>0.263</t>
+  </si>
+  <si>
+    <t>0.737+/-0.052</t>
+  </si>
+  <si>
+    <t>0.695+/-0.05</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.293+/-0.007</t>
+  </si>
+  <si>
+    <t>0.762+/-0.002</t>
+  </si>
+  <si>
+    <t>0.74+/-0.0</t>
+  </si>
+  <si>
+    <t>0.679</t>
+  </si>
+  <si>
+    <t>0.749+/-0.002</t>
+  </si>
+  <si>
+    <t>0.728+/-0.016</t>
+  </si>
+  <si>
+    <t>0.246</t>
+  </si>
+  <si>
+    <t>0.789+/-0.004</t>
+  </si>
+  <si>
+    <t>0.767+/-0.028</t>
+  </si>
+  <si>
+    <t>0.552</t>
+  </si>
+  <si>
+    <t>52.98+/-6.349</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.995+/-0.0</t>
+  </si>
+  <si>
+    <t>0.721+/-0.0</t>
+  </si>
+  <si>
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.969+/-0.009</t>
-  </si>
-  <si>
-    <t>0.621</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.646+/-0.002</t>
-  </si>
-  <si>
-    <t>0.643+/-0.0</t>
-  </si>
-  <si>
-    <t>0.593</t>
-  </si>
-  <si>
-    <t>0.635+/-0.002</t>
-  </si>
-  <si>
-    <t>0.633+/-0.011</t>
-  </si>
-  <si>
-    <t>0.277</t>
-  </si>
-  <si>
-    <t>0.686+/-0.004</t>
-  </si>
-  <si>
-    <t>0.684+/-0.025</t>
-  </si>
-  <si>
-    <t>0.632</t>
-  </si>
-  <si>
-    <t>0.32+/-0.026</t>
-  </si>
-  <si>
-    <t>0.572+/-0.002</t>
-  </si>
-  <si>
-    <t>0.572+/-0.0</t>
-  </si>
-  <si>
-    <t>0.435</t>
-  </si>
-  <si>
-    <t>0.55+/-0.001</t>
-  </si>
-  <si>
-    <t>0.55+/-0.008</t>
-  </si>
-  <si>
-    <t>0.227</t>
-  </si>
-  <si>
-    <t>0.791+/-0.005</t>
-  </si>
-  <si>
-    <t>0.791+/-0.011</t>
-  </si>
-  <si>
-    <t>0.749</t>
-  </si>
-  <si>
-    <t>0.01+/-0.001</t>
-  </si>
-  <si>
-    <t>0.599+/-0.001</t>
-  </si>
-  <si>
-    <t>0.598+/-0.0</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>0.587+/-0.001</t>
-  </si>
-  <si>
-    <t>0.587+/-0.01</t>
-  </si>
-  <si>
-    <t>0.244</t>
-  </si>
-  <si>
-    <t>0.668+/-0.002</t>
-  </si>
-  <si>
-    <t>0.666+/-0.014</t>
-  </si>
-  <si>
-    <t>0.611</t>
-  </si>
-  <si>
-    <t>0.011+/-0.001</t>
-  </si>
-  <si>
-    <t>0.811+/-0.008</t>
-  </si>
-  <si>
-    <t>0.748+/-0.0</t>
-  </si>
-  <si>
-    <t>0.651</t>
-  </si>
-  <si>
-    <t>0.794+/-0.015</t>
-  </si>
-  <si>
-    <t>0.728+/-0.019</t>
-  </si>
-  <si>
-    <t>0.291</t>
-  </si>
-  <si>
-    <t>0.842+/-0.03</t>
-  </si>
-  <si>
-    <t>0.795+/-0.035</t>
+    <t>0.661+/-0.01</t>
+  </si>
+  <si>
+    <t>0.322</t>
+  </si>
+  <si>
+    <t>0.991+/-0.001</t>
+  </si>
+  <si>
+    <t>0.91+/-0.017</t>
+  </si>
+  <si>
+    <t>0.559</t>
+  </si>
+  <si>
+    <t>0.003+/-0.001</t>
+  </si>
+  <si>
+    <t>0.581+/-0.0</t>
+  </si>
+  <si>
+    <t>0.602</t>
+  </si>
+  <si>
+    <t>0.594+/-0.002</t>
+  </si>
+  <si>
+    <t>0.589+/-0.017</t>
+  </si>
+  <si>
+    <t>0.352</t>
+  </si>
+  <si>
+    <t>0.534+/-0.002</t>
+  </si>
+  <si>
+    <t>0.533+/-0.029</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.193+/-0.018</t>
+  </si>
+  <si>
+    <t>0.557+/-0.002</t>
+  </si>
+  <si>
+    <t>0.557+/-0.0</t>
+  </si>
+  <si>
+    <t>0.658</t>
+  </si>
+  <si>
+    <t>0.601+/-0.003</t>
+  </si>
+  <si>
+    <t>0.601+/-0.027</t>
+  </si>
+  <si>
+    <t>0.372</t>
+  </si>
+  <si>
+    <t>0.342+/-0.011</t>
+  </si>
+  <si>
+    <t>0.341+/-0.021</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.564+/-0.002</t>
+  </si>
+  <si>
+    <t>0.561+/-0.0</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>0.571+/-0.002</t>
+  </si>
+  <si>
+    <t>0.569+/-0.018</t>
+  </si>
+  <si>
+    <t>0.337</t>
+  </si>
+  <si>
+    <t>0.512+/-0.002</t>
+  </si>
+  <si>
+    <t>0.509+/-0.014</t>
   </si>
   <si>
     <t>0.509</t>
   </si>
   <si>
-    <t>5.428+/-1.363</t>
-  </si>
-  <si>
-    <t>0.785+/-0.009</t>
-  </si>
-  <si>
-    <t>0.735+/-0.0</t>
-  </si>
-  <si>
-    <t>0.609</t>
-  </si>
-  <si>
-    <t>0.749+/-0.013</t>
-  </si>
-  <si>
-    <t>0.706+/-0.015</t>
-  </si>
-  <si>
-    <t>0.268</t>
-  </si>
-  <si>
-    <t>0.856+/-0.014</t>
-  </si>
-  <si>
-    <t>0.806+/-0.026</t>
-  </si>
-  <si>
-    <t>0.544</t>
-  </si>
-  <si>
-    <t>0.166+/-0.015</t>
-  </si>
-  <si>
-    <t>0.773+/-0.006</t>
-  </si>
-  <si>
-    <t>0.725+/-0.0</t>
-  </si>
-  <si>
-    <t>0.623</t>
-  </si>
-  <si>
-    <t>0.736+/-0.013</t>
-  </si>
-  <si>
-    <t>0.694+/-0.014</t>
-  </si>
-  <si>
-    <t>0.853+/-0.017</t>
-  </si>
-  <si>
-    <t>0.806+/-0.028</t>
-  </si>
-  <si>
-    <t>0.504</t>
-  </si>
-  <si>
-    <t>0.213+/-0.016</t>
-  </si>
-  <si>
-    <t>0.74+/-0.002</t>
-  </si>
-  <si>
-    <t>0.715+/-0.0</t>
-  </si>
-  <si>
-    <t>0.649</t>
-  </si>
-  <si>
-    <t>0.716+/-0.002</t>
-  </si>
-  <si>
-    <t>0.693+/-0.014</t>
-  </si>
-  <si>
-    <t>0.312</t>
-  </si>
-  <si>
-    <t>0.794+/-0.004</t>
-  </si>
-  <si>
-    <t>0.772+/-0.019</t>
-  </si>
-  <si>
-    <t>0.616</t>
-  </si>
-  <si>
-    <t>43.625+/-4.252</t>
-  </si>
-  <si>
-    <t>0.808+/-0.0</t>
-  </si>
-  <si>
-    <t>0.988+/-0.0</t>
-  </si>
-  <si>
-    <t>0.726+/-0.011</t>
-  </si>
-  <si>
-    <t>0.215</t>
-  </si>
-  <si>
-    <t>0.989+/-0.004</t>
-  </si>
-  <si>
-    <t>0.599</t>
-  </si>
-  <si>
-    <t>0.656+/-0.001</t>
+    <t>0.008+/-0.001</t>
+  </si>
+  <si>
+    <t>0.733+/-0.01</t>
   </si>
   <si>
     <t>0.652+/-0.0</t>
   </si>
   <si>
-    <t>0.615</t>
-  </si>
-  <si>
-    <t>0.648+/-0.001</t>
-  </si>
-  <si>
-    <t>0.644+/-0.011</t>
-  </si>
-  <si>
-    <t>0.224</t>
-  </si>
-  <si>
-    <t>0.683+/-0.003</t>
-  </si>
-  <si>
-    <t>0.679+/-0.01</t>
-  </si>
-  <si>
-    <t>0.638</t>
-  </si>
-  <si>
-    <t>0.377+/-0.016</t>
-  </si>
-  <si>
-    <t>0.585+/-0.002</t>
-  </si>
-  <si>
-    <t>0.584+/-0.0</t>
-  </si>
-  <si>
-    <t>0.433</t>
-  </si>
-  <si>
-    <t>0.562+/-0.001</t>
-  </si>
-  <si>
-    <t>0.561+/-0.008</t>
-  </si>
-  <si>
-    <t>0.173</t>
-  </si>
-  <si>
-    <t>0.778+/-0.006</t>
-  </si>
-  <si>
-    <t>0.777+/-0.016</t>
-  </si>
-  <si>
-    <t>0.735</t>
-  </si>
-  <si>
-    <t>0.009+/-0.001</t>
-  </si>
-  <si>
-    <t>0.608+/-0.003</t>
-  </si>
-  <si>
-    <t>0.607+/-0.0</t>
-  </si>
-  <si>
-    <t>0.594+/-0.002</t>
-  </si>
-  <si>
-    <t>0.594+/-0.021</t>
-  </si>
-  <si>
-    <t>0.191</t>
-  </si>
-  <si>
-    <t>0.681+/-0.003</t>
-  </si>
-  <si>
-    <t>0.68+/-0.019</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.839+/-0.01</t>
-  </si>
-  <si>
-    <t>0.785+/-0.0</t>
-  </si>
-  <si>
-    <t>0.704</t>
-  </si>
-  <si>
-    <t>0.817+/-0.018</t>
-  </si>
-  <si>
-    <t>0.761+/-0.014</t>
-  </si>
-  <si>
-    <t>0.245</t>
-  </si>
-  <si>
-    <t>0.876+/-0.032</t>
-  </si>
-  <si>
-    <t>0.834+/-0.045</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>4.402+/-0.785</t>
-  </si>
-  <si>
-    <t>0.816+/-0.01</t>
-  </si>
-  <si>
-    <t>0.768+/-0.0</t>
-  </si>
-  <si>
-    <t>0.662</t>
-  </si>
-  <si>
-    <t>0.798+/-0.029</t>
-  </si>
-  <si>
-    <t>0.753+/-0.027</t>
-  </si>
-  <si>
-    <t>0.214</t>
-  </si>
-  <si>
-    <t>0.849+/-0.044</t>
-  </si>
-  <si>
-    <t>0.801+/-0.041</t>
-  </si>
-  <si>
-    <t>0.184+/-0.006</t>
-  </si>
-  <si>
-    <t>0.805+/-0.008</t>
-  </si>
-  <si>
-    <t>0.761+/-0.0</t>
-  </si>
-  <si>
-    <t>0.646</t>
-  </si>
-  <si>
-    <t>0.802+/-0.04</t>
-  </si>
-  <si>
-    <t>0.758+/-0.041</t>
-  </si>
-  <si>
-    <t>0.199</t>
-  </si>
-  <si>
-    <t>0.816+/-0.061</t>
-  </si>
-  <si>
-    <t>0.777+/-0.065</t>
-  </si>
-  <si>
-    <t>0.452</t>
-  </si>
-  <si>
-    <t>0.267+/-0.005</t>
-  </si>
-  <si>
-    <t>0.762+/-0.002</t>
-  </si>
-  <si>
-    <t>0.738+/-0.0</t>
-  </si>
-  <si>
-    <t>0.657</t>
-  </si>
-  <si>
-    <t>0.738+/-0.002</t>
-  </si>
-  <si>
-    <t>0.715+/-0.013</t>
-  </si>
-  <si>
-    <t>0.236</t>
-  </si>
-  <si>
-    <t>0.812+/-0.005</t>
-  </si>
-  <si>
-    <t>0.791+/-0.014</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>47.642+/-5.349</t>
-  </si>
-  <si>
-    <t>0.718+/-0.0</t>
-  </si>
-  <si>
-    <t>0.549</t>
-  </si>
-  <si>
-    <t>0.657+/-0.007</t>
-  </si>
-  <si>
-    <t>0.319</t>
-  </si>
-  <si>
-    <t>0.989+/-0.001</t>
-  </si>
-  <si>
-    <t>0.914+/-0.011</t>
-  </si>
-  <si>
-    <t>0.553</t>
-  </si>
-  <si>
-    <t>0.003+/-0.001</t>
-  </si>
-  <si>
-    <t>0.579+/-0.002</t>
-  </si>
-  <si>
-    <t>0.577+/-0.0</t>
-  </si>
-  <si>
-    <t>0.605</t>
-  </si>
-  <si>
-    <t>0.59+/-0.002</t>
-  </si>
-  <si>
-    <t>0.587+/-0.011</t>
-  </si>
-  <si>
-    <t>0.355</t>
-  </si>
-  <si>
-    <t>0.523+/-0.004</t>
-  </si>
-  <si>
-    <t>0.52+/-0.022</t>
-  </si>
-  <si>
-    <t>0.524</t>
-  </si>
-  <si>
-    <t>0.172+/-0.014</t>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.731+/-0.019</t>
+  </si>
+  <si>
+    <t>0.647+/-0.026</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.742+/-0.053</t>
+  </si>
+  <si>
+    <t>0.672+/-0.052</t>
+  </si>
+  <si>
+    <t>5.045+/-0.878</t>
+  </si>
+  <si>
+    <t>0.739+/-0.008</t>
+  </si>
+  <si>
+    <t>0.666+/-0.0</t>
+  </si>
+  <si>
+    <t>0.585</t>
+  </si>
+  <si>
+    <t>0.753+/-0.033</t>
+  </si>
+  <si>
+    <t>0.673+/-0.021</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.719+/-0.048</t>
+  </si>
+  <si>
+    <t>0.65+/-0.06</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.152+/-0.005</t>
+  </si>
+  <si>
+    <t>0.721+/-0.006</t>
+  </si>
+  <si>
+    <t>0.735+/-0.023</t>
+  </si>
+  <si>
+    <t>0.677+/-0.026</t>
+  </si>
+  <si>
+    <t>0.332</t>
+  </si>
+  <si>
+    <t>0.693+/-0.033</t>
+  </si>
+  <si>
+    <t>0.636+/-0.048</t>
+  </si>
+  <si>
+    <t>0.419</t>
+  </si>
+  <si>
+    <t>0.228+/-0.004</t>
+  </si>
+  <si>
+    <t>0.671+/-0.002</t>
+  </si>
+  <si>
+    <t>0.631+/-0.0</t>
+  </si>
+  <si>
+    <t>0.598</t>
+  </si>
+  <si>
+    <t>0.663+/-0.003</t>
+  </si>
+  <si>
+    <t>0.624+/-0.016</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>0.697+/-0.008</t>
+  </si>
+  <si>
+    <t>0.659+/-0.025</t>
+  </si>
+  <si>
+    <t>0.532</t>
+  </si>
+  <si>
+    <t>220.047+/-4.484</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.539</t>
+  </si>
+  <si>
+    <t>0.639+/-0.008</t>
+  </si>
+  <si>
+    <t>0.343</t>
+  </si>
+  <si>
+    <t>0.991+/-0.0</t>
+  </si>
+  <si>
+    <t>0.885+/-0.011</t>
+  </si>
+  <si>
+    <t>0.543</t>
+  </si>
+  <si>
+    <t>0.568+/-0.003</t>
+  </si>
+  <si>
+    <t>0.565+/-0.0</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.573+/-0.003</t>
+  </si>
+  <si>
+    <t>0.57+/-0.017</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.535+/-0.004</t>
+  </si>
+  <si>
+    <t>0.532+/-0.026</t>
+  </si>
+  <si>
+    <t>0.508</t>
+  </si>
+  <si>
+    <t>0.179+/-0.016</t>
   </si>
   <si>
     <t>0.553+/-0.002</t>
@@ -592,388 +865,166 @@
     <t>0.552+/-0.0</t>
   </si>
   <si>
-    <t>0.671</t>
-  </si>
-  <si>
-    <t>0.604+/-0.003</t>
-  </si>
-  <si>
-    <t>0.602+/-0.02</t>
-  </si>
-  <si>
-    <t>0.386</t>
-  </si>
-  <si>
-    <t>0.308+/-0.01</t>
-  </si>
-  <si>
-    <t>0.306+/-0.016</t>
-  </si>
-  <si>
-    <t>0.318</t>
+    <t>0.586</t>
+  </si>
+  <si>
+    <t>0.562+/-0.003</t>
+  </si>
+  <si>
+    <t>0.561+/-0.018</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>0.479+/-0.015</t>
+  </si>
+  <si>
+    <t>0.478+/-0.024</t>
+  </si>
+  <si>
+    <t>0.464</t>
   </si>
   <si>
     <t>0.007+/-0.001</t>
   </si>
   <si>
-    <t>0.564+/-0.001</t>
-  </si>
-  <si>
-    <t>0.562+/-0.0</t>
-  </si>
-  <si>
-    <t>0.585</t>
-  </si>
-  <si>
-    <t>0.57+/-0.001</t>
-  </si>
-  <si>
-    <t>0.569+/-0.015</t>
-  </si>
-  <si>
-    <t>0.338</t>
-  </si>
-  <si>
-    <t>0.516+/-0.003</t>
-  </si>
-  <si>
-    <t>0.513+/-0.018</t>
-  </si>
-  <si>
-    <t>0.517</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.732+/-0.014</t>
-  </si>
-  <si>
-    <t>0.644+/-0.0</t>
-  </si>
-  <si>
-    <t>0.535</t>
-  </si>
-  <si>
-    <t>0.723+/-0.024</t>
-  </si>
-  <si>
-    <t>0.639+/-0.025</t>
-  </si>
-  <si>
-    <t>0.295</t>
-  </si>
-  <si>
-    <t>0.755+/-0.034</t>
-  </si>
-  <si>
-    <t>0.668+/-0.047</t>
-  </si>
-  <si>
-    <t>0.487</t>
-  </si>
-  <si>
-    <t>5.005+/-1.157</t>
-  </si>
-  <si>
-    <t>0.758+/-0.009</t>
-  </si>
-  <si>
-    <t>0.675+/-0.0</t>
-  </si>
-  <si>
-    <t>0.635</t>
-  </si>
-  <si>
-    <t>0.774+/-0.028</t>
-  </si>
-  <si>
-    <t>0.686+/-0.024</t>
-  </si>
-  <si>
-    <t>0.322</t>
-  </si>
-  <si>
-    <t>0.732+/-0.036</t>
-  </si>
-  <si>
-    <t>0.649+/-0.031</t>
-  </si>
-  <si>
-    <t>0.285</t>
-  </si>
-  <si>
-    <t>0.132+/-0.004</t>
-  </si>
-  <si>
-    <t>0.735+/-0.005</t>
-  </si>
-  <si>
-    <t>0.668+/-0.0</t>
-  </si>
-  <si>
-    <t>0.627</t>
-  </si>
-  <si>
-    <t>0.76+/-0.033</t>
-  </si>
-  <si>
-    <t>0.688+/-0.041</t>
-  </si>
-  <si>
-    <t>0.331</t>
-  </si>
-  <si>
-    <t>0.693+/-0.051</t>
-  </si>
-  <si>
-    <t>0.625+/-0.042</t>
-  </si>
-  <si>
-    <t>0.191+/-0.004</t>
-  </si>
-  <si>
-    <t>0.657+/-0.003</t>
-  </si>
-  <si>
-    <t>0.619+/-0.0</t>
-  </si>
-  <si>
-    <t>0.652+/-0.003</t>
-  </si>
-  <si>
-    <t>0.615+/-0.011</t>
-  </si>
-  <si>
-    <t>0.347</t>
-  </si>
-  <si>
-    <t>0.674+/-0.01</t>
-  </si>
-  <si>
-    <t>0.638+/-0.02</t>
-  </si>
-  <si>
-    <t>0.534</t>
-  </si>
-  <si>
-    <t>38.356+/-3.522</t>
-  </si>
-  <si>
-    <t>0.994+/-0.002</t>
-  </si>
-  <si>
-    <t>0.699+/-0.0</t>
-  </si>
-  <si>
-    <t>0.996+/-0.008</t>
-  </si>
-  <si>
-    <t>0.644+/-0.008</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.993+/-0.004</t>
-  </si>
-  <si>
-    <t>0.892+/-0.012</t>
-  </si>
-  <si>
-    <t>0.572</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.566+/-0.002</t>
-  </si>
-  <si>
-    <t>0.568+/-0.012</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.523+/-0.005</t>
-  </si>
-  <si>
-    <t>0.521+/-0.016</t>
-  </si>
-  <si>
-    <t>0.156+/-0.018</t>
-  </si>
-  <si>
-    <t>0.548+/-0.002</t>
-  </si>
-  <si>
-    <t>0.546+/-0.0</t>
-  </si>
-  <si>
-    <t>0.598</t>
-  </si>
-  <si>
-    <t>0.561+/-0.003</t>
-  </si>
-  <si>
-    <t>0.558+/-0.023</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>0.443+/-0.014</t>
-  </si>
-  <si>
-    <t>0.441+/-0.022</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
     <t>0.551+/-0.002</t>
   </si>
   <si>
-    <t>0.55+/-0.0</t>
-  </si>
-  <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t>0.557+/-0.002</t>
-  </si>
-  <si>
-    <t>0.555+/-0.017</t>
-  </si>
-  <si>
-    <t>0.364</t>
-  </si>
-  <si>
-    <t>0.504+/-0.003</t>
-  </si>
-  <si>
-    <t>0.504+/-0.025</t>
+    <t>0.549+/-0.0</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>0.556+/-0.002</t>
+  </si>
+  <si>
+    <t>0.554+/-0.016</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.504+/-0.002</t>
+  </si>
+  <si>
+    <t>0.502+/-0.022</t>
   </si>
   <si>
     <t>0.51</t>
   </si>
   <si>
+    <t>0.009+/-0.0</t>
+  </si>
+  <si>
     <t>0.71+/-0.007</t>
   </si>
   <si>
-    <t>0.621+/-0.0</t>
-  </si>
-  <si>
-    <t>0.548</t>
-  </si>
-  <si>
-    <t>0.69+/-0.021</t>
-  </si>
-  <si>
-    <t>0.608+/-0.015</t>
-  </si>
-  <si>
-    <t>0.349</t>
-  </si>
-  <si>
-    <t>0.767+/-0.05</t>
-  </si>
-  <si>
-    <t>0.688+/-0.062</t>
-  </si>
-  <si>
-    <t>0.538</t>
-  </si>
-  <si>
-    <t>3.938+/-0.68</t>
-  </si>
-  <si>
-    <t>0.738+/-0.01</t>
-  </si>
-  <si>
-    <t>0.642+/-0.0</t>
-  </si>
-  <si>
-    <t>0.588</t>
-  </si>
-  <si>
-    <t>0.758+/-0.028</t>
-  </si>
-  <si>
-    <t>0.654+/-0.036</t>
-  </si>
-  <si>
-    <t>0.337</t>
-  </si>
-  <si>
-    <t>0.703+/-0.052</t>
-  </si>
-  <si>
-    <t>0.613+/-0.052</t>
-  </si>
-  <si>
-    <t>0.108+/-0.007</t>
-  </si>
-  <si>
-    <t>0.712+/-0.009</t>
-  </si>
-  <si>
-    <t>0.631+/-0.0</t>
-  </si>
-  <si>
-    <t>0.597</t>
-  </si>
-  <si>
-    <t>0.726+/-0.023</t>
-  </si>
-  <si>
-    <t>0.64+/-0.03</t>
-  </si>
-  <si>
-    <t>0.688+/-0.053</t>
-  </si>
-  <si>
-    <t>0.608+/-0.045</t>
-  </si>
-  <si>
-    <t>0.377</t>
-  </si>
-  <si>
-    <t>0.152+/-0.014</t>
+    <t>0.628+/-0.0</t>
+  </si>
+  <si>
+    <t>0.565</t>
+  </si>
+  <si>
+    <t>0.695+/-0.01</t>
+  </si>
+  <si>
+    <t>0.615+/-0.012</t>
+  </si>
+  <si>
+    <t>0.361</t>
+  </si>
+  <si>
+    <t>0.751+/-0.035</t>
+  </si>
+  <si>
+    <t>0.681+/-0.037</t>
+  </si>
+  <si>
+    <t>6.057+/-1.6</t>
+  </si>
+  <si>
+    <t>0.74+/-0.005</t>
+  </si>
+  <si>
+    <t>0.655+/-0.0</t>
+  </si>
+  <si>
+    <t>0.741+/-0.019</t>
+  </si>
+  <si>
+    <t>0.656+/-0.022</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.739+/-0.042</t>
+  </si>
+  <si>
+    <t>0.655+/-0.049</t>
+  </si>
+  <si>
+    <t>0.449</t>
+  </si>
+  <si>
+    <t>0.117+/-0.009</t>
+  </si>
+  <si>
+    <t>0.719+/-0.003</t>
+  </si>
+  <si>
+    <t>0.607</t>
+  </si>
+  <si>
+    <t>0.738+/-0.021</t>
+  </si>
+  <si>
+    <t>0.66+/-0.025</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.682+/-0.042</t>
+  </si>
+  <si>
+    <t>0.611+/-0.055</t>
+  </si>
+  <si>
+    <t>0.363</t>
+  </si>
+  <si>
+    <t>0.159+/-0.011</t>
   </si>
   <si>
     <t>0.656+/-0.002</t>
   </si>
   <si>
-    <t>0.61+/-0.0</t>
-  </si>
-  <si>
-    <t>0.576</t>
-  </si>
-  <si>
-    <t>0.642+/-0.003</t>
-  </si>
-  <si>
-    <t>0.6+/-0.013</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>0.707+/-0.007</t>
-  </si>
-  <si>
-    <t>0.662+/-0.017</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>36.612+/-3.043</t>
+    <t>0.612+/-0.0</t>
+  </si>
+  <si>
+    <t>0.649+/-0.002</t>
+  </si>
+  <si>
+    <t>0.606+/-0.014</t>
+  </si>
+  <si>
+    <t>0.382</t>
+  </si>
+  <si>
+    <t>0.681+/-0.009</t>
+  </si>
+  <si>
+    <t>0.641+/-0.026</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>38.117+/-2.927</t>
   </si>
 </sst>
 </file>
@@ -1374,28 +1425,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1403,31 +1454,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1435,31 +1486,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4">
-        <v>0.7983870967741935</v>
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1467,31 +1518,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1499,31 +1550,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1531,31 +1582,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1563,31 +1614,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1595,31 +1646,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1627,31 +1678,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>67</v>
-      </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1659,31 +1710,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1736,7 +1787,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
         <v>114</v>
@@ -1745,19 +1796,19 @@
         <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>163</v>
+      </c>
+      <c r="J2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1765,10 +1816,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
         <v>115</v>
@@ -1777,19 +1828,19 @@
         <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>164</v>
+      </c>
+      <c r="J3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1797,31 +1848,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
         <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4">
-        <v>0.85</v>
+        <v>165</v>
+      </c>
+      <c r="J4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1829,31 +1880,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
         <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I5" t="s">
-        <v>164</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="J5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1861,31 +1912,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
         <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="J6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1893,31 +1944,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
         <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I7" t="s">
-        <v>166</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="J7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1925,31 +1976,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
         <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="J8" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1957,31 +2008,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
         <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I9" t="s">
-        <v>168</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="J9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1989,31 +2040,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
         <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I10" t="s">
-        <v>169</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>171</v>
+      </c>
+      <c r="J10" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2021,31 +2072,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I11" t="s">
-        <v>170</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>172</v>
+      </c>
+      <c r="J11" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2098,28 +2149,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>242</v>
+      </c>
+      <c r="J2" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2127,31 +2178,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I3" t="s">
-        <v>239</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>233</v>
+      </c>
+      <c r="J3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2159,31 +2210,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
         <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4">
-        <v>0.7231182795698925</v>
+        <v>113</v>
+      </c>
+      <c r="J4" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2191,31 +2242,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I5" t="s">
-        <v>240</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>243</v>
+      </c>
+      <c r="J5" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2223,31 +2274,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I6" t="s">
-        <v>241</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>244</v>
+      </c>
+      <c r="J6" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2255,31 +2306,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I7" t="s">
-        <v>242</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>245</v>
+      </c>
+      <c r="J7" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2287,31 +2338,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I8" t="s">
-        <v>243</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>246</v>
+      </c>
+      <c r="J8" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2319,31 +2370,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G9" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I9" t="s">
-        <v>244</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="J9" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2351,31 +2402,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="I10" t="s">
-        <v>245</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="J10" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2383,31 +2434,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H11" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I11" t="s">
-        <v>246</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>249</v>
+      </c>
+      <c r="J11" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2457,31 +2508,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="F2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="G2" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="I2" t="s">
-        <v>309</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>318</v>
+      </c>
+      <c r="J2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2489,31 +2540,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E3" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F3" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="G3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="H3" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="I3" t="s">
-        <v>310</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2521,31 +2572,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="F4" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="G4" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="I4" t="s">
-        <v>311</v>
-      </c>
-      <c r="J4">
-        <v>0.6919354838709677</v>
+        <v>319</v>
+      </c>
+      <c r="J4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2553,31 +2604,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E5" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F5" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="G5" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="I5" t="s">
-        <v>312</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>320</v>
+      </c>
+      <c r="J5" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2585,31 +2636,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E6" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="F6" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="G6" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="H6" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="I6" t="s">
-        <v>313</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="J6" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2617,31 +2668,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="G7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="H7" t="s">
-        <v>184</v>
+        <v>313</v>
       </c>
       <c r="I7" t="s">
-        <v>314</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>322</v>
+      </c>
+      <c r="J7" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2649,31 +2700,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C8" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F8" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="G8" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="H8" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="I8" t="s">
-        <v>315</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>323</v>
+      </c>
+      <c r="J8" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2681,31 +2732,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="E9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F9" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="G9" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="H9" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="I9" t="s">
-        <v>316</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>324</v>
+      </c>
+      <c r="J9" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2713,31 +2764,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>269</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="F10" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="G10" t="s">
-        <v>286</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="I10" t="s">
-        <v>317</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>325</v>
+      </c>
+      <c r="J10" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2745,31 +2796,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="E11" t="s">
-        <v>208</v>
+        <v>289</v>
       </c>
       <c r="F11" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="G11" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="H11" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="I11" t="s">
-        <v>318</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>326</v>
+      </c>
+      <c r="J11" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_25_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_25_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="334">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -91,940 +91,934 @@
     <t>0.1+/-0.3</t>
   </si>
   <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.994+/-0.0</t>
+  </si>
+  <si>
+    <t>0.787+/-0.0</t>
+  </si>
+  <si>
+    <t>0.602</t>
+  </si>
+  <si>
+    <t>0.989+/-0.0</t>
+  </si>
+  <si>
+    <t>0.709+/-0.011</t>
+  </si>
+  <si>
+    <t>0.281</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.973+/-0.01</t>
+  </si>
+  <si>
+    <t>0.624</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
+  </si>
+  <si>
+    <t>0.65+/-0.002</t>
+  </si>
+  <si>
+    <t>0.649+/-0.0</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.638+/-0.002</t>
+  </si>
+  <si>
+    <t>0.636+/-0.009</t>
+  </si>
+  <si>
+    <t>0.276</t>
+  </si>
+  <si>
+    <t>0.696+/-0.004</t>
+  </si>
+  <si>
+    <t>0.694+/-0.017</t>
+  </si>
+  <si>
+    <t>0.635</t>
+  </si>
+  <si>
+    <t>0.288+/-0.01</t>
+  </si>
+  <si>
+    <t>0.581+/-0.002</t>
+  </si>
+  <si>
+    <t>0.58+/-0.0</t>
+  </si>
+  <si>
+    <t>0.442</t>
+  </si>
+  <si>
+    <t>0.556+/-0.001</t>
+  </si>
+  <si>
+    <t>0.556+/-0.01</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.794+/-0.007</t>
+  </si>
+  <si>
+    <t>0.794+/-0.019</t>
+  </si>
+  <si>
+    <t>0.749</t>
+  </si>
+  <si>
+    <t>0.008+/-0.001</t>
+  </si>
+  <si>
+    <t>0.601+/-0.001</t>
+  </si>
+  <si>
+    <t>0.601+/-0.0</t>
+  </si>
+  <si>
+    <t>0.543</t>
+  </si>
+  <si>
+    <t>0.589+/-0.001</t>
+  </si>
+  <si>
+    <t>0.589+/-0.012</t>
+  </si>
+  <si>
+    <t>0.246</t>
+  </si>
+  <si>
+    <t>0.67+/-0.003</t>
+  </si>
+  <si>
+    <t>0.669+/-0.019</t>
+  </si>
+  <si>
+    <t>0.613</t>
+  </si>
+  <si>
+    <t>0.009+/-0.0</t>
+  </si>
+  <si>
+    <t>0.813+/-0.011</t>
+  </si>
+  <si>
+    <t>0.746+/-0.0</t>
+  </si>
+  <si>
+    <t>0.657</t>
+  </si>
+  <si>
+    <t>0.791+/-0.016</t>
+  </si>
+  <si>
+    <t>0.726+/-0.013</t>
+  </si>
+  <si>
+    <t>0.297</t>
+  </si>
+  <si>
+    <t>0.852+/-0.033</t>
+  </si>
+  <si>
+    <t>0.791+/-0.033</t>
+  </si>
+  <si>
+    <t>0.515</t>
+  </si>
+  <si>
+    <t>4.916+/-1.313</t>
+  </si>
+  <si>
+    <t>0.792+/-0.007</t>
+  </si>
+  <si>
+    <t>0.732+/-0.0</t>
+  </si>
+  <si>
+    <t>0.647</t>
+  </si>
+  <si>
+    <t>0.766+/-0.013</t>
+  </si>
+  <si>
+    <t>0.71+/-0.016</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.841+/-0.02</t>
+  </si>
+  <si>
+    <t>0.786+/-0.029</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.147+/-0.013</t>
+  </si>
+  <si>
+    <t>0.775+/-0.007</t>
+  </si>
+  <si>
+    <t>0.726+/-0.0</t>
+  </si>
+  <si>
+    <t>0.622</t>
+  </si>
+  <si>
+    <t>0.761+/-0.031</t>
+  </si>
+  <si>
+    <t>0.714+/-0.032</t>
+  </si>
+  <si>
+    <t>0.277</t>
+  </si>
+  <si>
+    <t>0.808+/-0.051</t>
+  </si>
+  <si>
+    <t>0.761+/-0.052</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>0.204+/-0.006</t>
+  </si>
+  <si>
+    <t>0.744+/-0.002</t>
+  </si>
+  <si>
+    <t>0.719+/-0.0</t>
+  </si>
+  <si>
+    <t>0.645</t>
+  </si>
+  <si>
+    <t>0.718+/-0.002</t>
+  </si>
+  <si>
+    <t>0.695+/-0.017</t>
+  </si>
+  <si>
+    <t>0.306</t>
+  </si>
+  <si>
+    <t>0.804+/-0.005</t>
+  </si>
+  <si>
+    <t>0.781+/-0.023</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>35.507+/-0.983</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
     <t>0.001+/-0.0</t>
   </si>
   <si>
-    <t>0.993+/-0.005</t>
-  </si>
-  <si>
-    <t>0.786+/-0.0</t>
-  </si>
-  <si>
-    <t>0.608</t>
-  </si>
-  <si>
-    <t>0.99+/-0.003</t>
-  </si>
-  <si>
-    <t>0.71+/-0.01</t>
-  </si>
-  <si>
-    <t>0.285</t>
+    <t>0.992+/-0.006</t>
+  </si>
+  <si>
+    <t>0.805+/-0.0</t>
+  </si>
+  <si>
+    <t>0.607</t>
+  </si>
+  <si>
+    <t>0.989+/-0.002</t>
+  </si>
+  <si>
+    <t>0.725+/-0.01</t>
+  </si>
+  <si>
+    <t>0.215</t>
   </si>
   <si>
     <t>0.995+/-0.014</t>
   </si>
   <si>
-    <t>0.969+/-0.006</t>
-  </si>
-  <si>
-    <t>0.629</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.648+/-0.001</t>
-  </si>
-  <si>
-    <t>0.646+/-0.0</t>
-  </si>
-  <si>
-    <t>0.596</t>
-  </si>
-  <si>
-    <t>0.636+/-0.002</t>
-  </si>
-  <si>
-    <t>0.634+/-0.005</t>
-  </si>
-  <si>
-    <t>0.279</t>
-  </si>
-  <si>
-    <t>0.691+/-0.005</t>
-  </si>
-  <si>
-    <t>0.689+/-0.01</t>
-  </si>
-  <si>
-    <t>0.635</t>
-  </si>
-  <si>
-    <t>0.346+/-0.02</t>
-  </si>
-  <si>
-    <t>0.577+/-0.001</t>
-  </si>
-  <si>
-    <t>0.577+/-0.0</t>
-  </si>
-  <si>
-    <t>0.439</t>
-  </si>
-  <si>
-    <t>0.554+/-0.001</t>
-  </si>
-  <si>
-    <t>0.554+/-0.007</t>
-  </si>
-  <si>
-    <t>0.228</t>
-  </si>
-  <si>
-    <t>0.792+/-0.005</t>
-  </si>
-  <si>
-    <t>0.793+/-0.019</t>
-  </si>
-  <si>
-    <t>0.747</t>
-  </si>
-  <si>
-    <t>0.01+/-0.0</t>
-  </si>
-  <si>
-    <t>0.602+/-0.001</t>
-  </si>
-  <si>
-    <t>0.602+/-0.0</t>
+    <t>0.984+/-0.014</t>
+  </si>
+  <si>
+    <t>0.609</t>
+  </si>
+  <si>
+    <t>0.656+/-0.001</t>
+  </si>
+  <si>
+    <t>0.654+/-0.0</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.651+/-0.001</t>
+  </si>
+  <si>
+    <t>0.649+/-0.01</t>
+  </si>
+  <si>
+    <t>0.226</t>
+  </si>
+  <si>
+    <t>0.671+/-0.003</t>
+  </si>
+  <si>
+    <t>0.67+/-0.023</t>
+  </si>
+  <si>
+    <t>0.616</t>
+  </si>
+  <si>
+    <t>0.318+/-0.026</t>
+  </si>
+  <si>
+    <t>0.588+/-0.002</t>
+  </si>
+  <si>
+    <t>0.587+/-0.0</t>
+  </si>
+  <si>
+    <t>0.453</t>
+  </si>
+  <si>
+    <t>0.565+/-0.001</t>
+  </si>
+  <si>
+    <t>0.564+/-0.011</t>
+  </si>
+  <si>
+    <t>0.177</t>
+  </si>
+  <si>
+    <t>0.765+/-0.003</t>
+  </si>
+  <si>
+    <t>0.764+/-0.019</t>
+  </si>
+  <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>0.612+/-0.001</t>
+  </si>
+  <si>
+    <t>0.612+/-0.0</t>
   </si>
   <si>
     <t>0.544</t>
   </si>
   <si>
-    <t>0.59+/-0.001</t>
-  </si>
-  <si>
-    <t>0.59+/-0.01</t>
+    <t>0.597+/-0.001</t>
+  </si>
+  <si>
+    <t>0.597+/-0.015</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.69+/-0.002</t>
+  </si>
+  <si>
+    <t>0.69+/-0.014</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>0.848+/-0.01</t>
+  </si>
+  <si>
+    <t>0.79+/-0.0</t>
+  </si>
+  <si>
+    <t>0.677</t>
+  </si>
+  <si>
+    <t>0.822+/-0.014</t>
+  </si>
+  <si>
+    <t>0.764+/-0.018</t>
+  </si>
+  <si>
+    <t>0.222</t>
+  </si>
+  <si>
+    <t>0.888+/-0.019</t>
+  </si>
+  <si>
+    <t>0.841+/-0.022</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>4.927+/-1.301</t>
+  </si>
+  <si>
+    <t>0.822+/-0.006</t>
+  </si>
+  <si>
+    <t>0.776+/-0.0</t>
+  </si>
+  <si>
+    <t>0.758</t>
+  </si>
+  <si>
+    <t>0.846+/-0.029</t>
+  </si>
+  <si>
+    <t>0.793+/-0.031</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.793+/-0.051</t>
+  </si>
+  <si>
+    <t>0.751+/-0.055</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.15+/-0.009</t>
+  </si>
+  <si>
+    <t>0.806+/-0.004</t>
+  </si>
+  <si>
+    <t>0.766+/-0.0</t>
+  </si>
+  <si>
+    <t>0.751</t>
+  </si>
+  <si>
+    <t>0.841+/-0.036</t>
+  </si>
+  <si>
+    <t>0.798+/-0.037</t>
   </si>
   <si>
     <t>0.245</t>
   </si>
   <si>
-    <t>0.668+/-0.001</t>
-  </si>
-  <si>
-    <t>0.668+/-0.01</t>
-  </si>
-  <si>
-    <t>0.013+/-0.005</t>
-  </si>
-  <si>
-    <t>0.817+/-0.007</t>
-  </si>
-  <si>
-    <t>0.755+/-0.0</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.799+/-0.017</t>
-  </si>
-  <si>
-    <t>0.735+/-0.014</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>0.847+/-0.024</t>
-  </si>
-  <si>
-    <t>0.798+/-0.034</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>11.216+/-3.247</t>
-  </si>
-  <si>
-    <t>0.784+/-0.005</t>
-  </si>
-  <si>
-    <t>0.734+/-0.0</t>
-  </si>
-  <si>
-    <t>0.641</t>
-  </si>
-  <si>
-    <t>0.753+/-0.01</t>
-  </si>
-  <si>
-    <t>0.709+/-0.016</t>
-  </si>
-  <si>
-    <t>0.284</t>
-  </si>
-  <si>
-    <t>0.846+/-0.019</t>
-  </si>
-  <si>
-    <t>0.795+/-0.023</t>
-  </si>
-  <si>
-    <t>0.515</t>
-  </si>
-  <si>
-    <t>0.196+/-0.007</t>
-  </si>
-  <si>
-    <t>0.77+/-0.005</t>
-  </si>
-  <si>
-    <t>0.728+/-0.0</t>
-  </si>
-  <si>
-    <t>0.645</t>
-  </si>
-  <si>
-    <t>0.739+/-0.009</t>
-  </si>
-  <si>
-    <t>0.704+/-0.017</t>
-  </si>
-  <si>
-    <t>0.294</t>
-  </si>
-  <si>
-    <t>0.835+/-0.022</t>
-  </si>
-  <si>
-    <t>0.789+/-0.031</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>0.289+/-0.007</t>
-  </si>
-  <si>
-    <t>0.74+/-0.002</t>
-  </si>
-  <si>
-    <t>0.716+/-0.0</t>
-  </si>
-  <si>
-    <t>0.655</t>
-  </si>
-  <si>
-    <t>0.722+/-0.002</t>
-  </si>
-  <si>
-    <t>0.698+/-0.012</t>
-  </si>
-  <si>
-    <t>0.316</t>
-  </si>
-  <si>
-    <t>0.782+/-0.004</t>
-  </si>
-  <si>
-    <t>0.761+/-0.012</t>
-  </si>
-  <si>
-    <t>0.611</t>
-  </si>
-  <si>
-    <t>52.358+/-3.298</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.992+/-0.007</t>
-  </si>
-  <si>
-    <t>0.807+/-0.0</t>
-  </si>
-  <si>
-    <t>0.612</t>
-  </si>
-  <si>
-    <t>0.99+/-0.004</t>
-  </si>
-  <si>
-    <t>0.727+/-0.013</t>
-  </si>
-  <si>
-    <t>0.217</t>
-  </si>
-  <si>
-    <t>0.994+/-0.017</t>
-  </si>
-  <si>
-    <t>0.982+/-0.017</t>
-  </si>
-  <si>
-    <t>0.606</t>
-  </si>
-  <si>
-    <t>0.652+/-0.002</t>
-  </si>
-  <si>
-    <t>0.65+/-0.0</t>
-  </si>
-  <si>
-    <t>0.617</t>
-  </si>
-  <si>
-    <t>0.645+/-0.002</t>
-  </si>
-  <si>
-    <t>0.643+/-0.013</t>
-  </si>
-  <si>
-    <t>0.224</t>
-  </si>
-  <si>
-    <t>0.676+/-0.002</t>
-  </si>
-  <si>
-    <t>0.674+/-0.027</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.462+/-0.023</t>
-  </si>
-  <si>
-    <t>0.584+/-0.001</t>
-  </si>
-  <si>
-    <t>0.582+/-0.0</t>
-  </si>
-  <si>
-    <t>0.447</t>
-  </si>
-  <si>
-    <t>0.562+/-0.001</t>
-  </si>
-  <si>
-    <t>0.56+/-0.01</t>
-  </si>
-  <si>
-    <t>0.175</t>
-  </si>
-  <si>
-    <t>0.762+/-0.005</t>
-  </si>
-  <si>
-    <t>0.76+/-0.019</t>
-  </si>
-  <si>
-    <t>0.724</t>
-  </si>
-  <si>
-    <t>0.011+/-0.002</t>
-  </si>
-  <si>
-    <t>0.611+/-0.002</t>
+    <t>0.761+/-0.059</t>
+  </si>
+  <si>
+    <t>0.718+/-0.055</t>
+  </si>
+  <si>
+    <t>0.319</t>
+  </si>
+  <si>
+    <t>0.214+/-0.005</t>
+  </si>
+  <si>
+    <t>0.763+/-0.001</t>
+  </si>
+  <si>
+    <t>0.742+/-0.0</t>
+  </si>
+  <si>
+    <t>0.676</t>
+  </si>
+  <si>
+    <t>0.723+/-0.012</t>
+  </si>
+  <si>
+    <t>0.248</t>
+  </si>
+  <si>
+    <t>0.802+/-0.003</t>
+  </si>
+  <si>
+    <t>0.783+/-0.009</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>38.518+/-0.516</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.995+/-0.0</t>
+  </si>
+  <si>
+    <t>0.717+/-0.0</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.654+/-0.007</t>
+  </si>
+  <si>
+    <t>0.328</t>
+  </si>
+  <si>
+    <t>0.99+/-0.0</t>
+  </si>
+  <si>
+    <t>0.92+/-0.009</t>
+  </si>
+  <si>
+    <t>0.563</t>
+  </si>
+  <si>
+    <t>0.002+/-0.0</t>
+  </si>
+  <si>
+    <t>0.579+/-0.0</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>0.59+/-0.002</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.527+/-0.005</t>
+  </si>
+  <si>
+    <t>0.525+/-0.033</t>
+  </si>
+  <si>
+    <t>0.526</t>
+  </si>
+  <si>
+    <t>0.173+/-0.017</t>
+  </si>
+  <si>
+    <t>0.554+/-0.002</t>
+  </si>
+  <si>
+    <t>0.553+/-0.0</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>0.6+/-0.003</t>
+  </si>
+  <si>
+    <t>0.599+/-0.02</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>0.324+/-0.01</t>
+  </si>
+  <si>
+    <t>0.322+/-0.011</t>
+  </si>
+  <si>
+    <t>0.336</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.56+/-0.001</t>
+  </si>
+  <si>
+    <t>0.559+/-0.0</t>
+  </si>
+  <si>
+    <t>0.588</t>
+  </si>
+  <si>
+    <t>0.567+/-0.001</t>
+  </si>
+  <si>
+    <t>0.566+/-0.016</t>
+  </si>
+  <si>
+    <t>0.341</t>
+  </si>
+  <si>
+    <t>0.51+/-0.002</t>
+  </si>
+  <si>
+    <t>0.508+/-0.021</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.729+/-0.012</t>
+  </si>
+  <si>
+    <t>0.642+/-0.0</t>
+  </si>
+  <si>
+    <t>0.715+/-0.024</t>
+  </si>
+  <si>
+    <t>0.63+/-0.012</t>
+  </si>
+  <si>
+    <t>0.358</t>
+  </si>
+  <si>
+    <t>0.766+/-0.037</t>
+  </si>
+  <si>
+    <t>0.689+/-0.051</t>
+  </si>
+  <si>
+    <t>0.501</t>
+  </si>
+  <si>
+    <t>4.072+/-0.693</t>
+  </si>
+  <si>
+    <t>0.749+/-0.009</t>
+  </si>
+  <si>
+    <t>0.674+/-0.0</t>
+  </si>
+  <si>
+    <t>0.638</t>
+  </si>
+  <si>
+    <t>0.789+/-0.026</t>
+  </si>
+  <si>
+    <t>0.699+/-0.027</t>
+  </si>
+  <si>
+    <t>0.361</t>
+  </si>
+  <si>
+    <t>0.683+/-0.035</t>
+  </si>
+  <si>
+    <t>0.615+/-0.042</t>
+  </si>
+  <si>
+    <t>0.402</t>
+  </si>
+  <si>
+    <t>0.123+/-0.011</t>
+  </si>
+  <si>
+    <t>0.733+/-0.008</t>
+  </si>
+  <si>
+    <t>0.667+/-0.0</t>
+  </si>
+  <si>
+    <t>0.772+/-0.027</t>
+  </si>
+  <si>
+    <t>0.696+/-0.027</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.666+/-0.037</t>
+  </si>
+  <si>
+    <t>0.599+/-0.042</t>
+  </si>
+  <si>
+    <t>0.398</t>
+  </si>
+  <si>
+    <t>0.167+/-0.008</t>
+  </si>
+  <si>
+    <t>0.666+/-0.002</t>
+  </si>
+  <si>
+    <t>0.622+/-0.0</t>
+  </si>
+  <si>
+    <t>0.582</t>
+  </si>
+  <si>
+    <t>0.653+/-0.003</t>
+  </si>
+  <si>
+    <t>0.613+/-0.009</t>
+  </si>
+  <si>
+    <t>0.344</t>
+  </si>
+  <si>
+    <t>0.707+/-0.009</t>
+  </si>
+  <si>
+    <t>0.663+/-0.026</t>
+  </si>
+  <si>
+    <t>0.561</t>
+  </si>
+  <si>
+    <t>33.376+/-1.719</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.994+/-0.001</t>
+  </si>
+  <si>
+    <t>0.695+/-0.0</t>
+  </si>
+  <si>
+    <t>0.537</t>
+  </si>
+  <si>
+    <t>0.998+/-0.006</t>
+  </si>
+  <si>
+    <t>0.642+/-0.006</t>
+  </si>
+  <si>
+    <t>0.345</t>
+  </si>
+  <si>
+    <t>0.989+/-0.004</t>
+  </si>
+  <si>
+    <t>0.884+/-0.012</t>
+  </si>
+  <si>
+    <t>0.003+/-0.001</t>
+  </si>
+  <si>
+    <t>0.563+/-0.002</t>
+  </si>
+  <si>
+    <t>0.556+/-0.0</t>
+  </si>
+  <si>
+    <t>0.569+/-0.002</t>
+  </si>
+  <si>
+    <t>0.562+/-0.014</t>
+  </si>
+  <si>
+    <t>0.371</t>
+  </si>
+  <si>
+    <t>0.519+/-0.005</t>
+  </si>
+  <si>
+    <t>0.513+/-0.016</t>
+  </si>
+  <si>
+    <t>0.513</t>
+  </si>
+  <si>
+    <t>0.14+/-0.036</t>
+  </si>
+  <si>
+    <t>0.549+/-0.002</t>
+  </si>
+  <si>
+    <t>0.547+/-0.0</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>0.564+/-0.003</t>
+  </si>
+  <si>
+    <t>0.56+/-0.021</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.435+/-0.014</t>
+  </si>
+  <si>
+    <t>0.433+/-0.026</t>
+  </si>
+  <si>
+    <t>0.449</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.547+/-0.002</t>
+  </si>
+  <si>
+    <t>0.544+/-0.0</t>
+  </si>
+  <si>
+    <t>0.567</t>
+  </si>
+  <si>
+    <t>0.55+/-0.003</t>
+  </si>
+  <si>
+    <t>0.548+/-0.012</t>
+  </si>
+  <si>
+    <t>0.511+/-0.006</t>
+  </si>
+  <si>
+    <t>0.508+/-0.025</t>
+  </si>
+  <si>
+    <t>0.527</t>
+  </si>
+  <si>
+    <t>0.71+/-0.015</t>
+  </si>
+  <si>
+    <t>0.613+/-0.0</t>
+  </si>
+  <si>
+    <t>0.699+/-0.032</t>
+  </si>
+  <si>
+    <t>0.605+/-0.018</t>
+  </si>
+  <si>
+    <t>0.749+/-0.062</t>
+  </si>
+  <si>
+    <t>0.657+/-0.07</t>
+  </si>
+  <si>
+    <t>4.027+/-0.673</t>
+  </si>
+  <si>
+    <t>0.726+/-0.008</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.736+/-0.021</t>
+  </si>
+  <si>
+    <t>0.647+/-0.02</t>
+  </si>
+  <si>
+    <t>0.348</t>
+  </si>
+  <si>
+    <t>0.708+/-0.053</t>
+  </si>
+  <si>
+    <t>0.628+/-0.058</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>0.109+/-0.006</t>
+  </si>
+  <si>
+    <t>0.706+/-0.005</t>
+  </si>
+  <si>
+    <t>0.638+/-0.0</t>
+  </si>
+  <si>
+    <t>0.565</t>
+  </si>
+  <si>
+    <t>0.727+/-0.027</t>
+  </si>
+  <si>
+    <t>0.651+/-0.022</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>0.665+/-0.049</t>
+  </si>
+  <si>
+    <t>0.598+/-0.06</t>
+  </si>
+  <si>
+    <t>0.151+/-0.006</t>
+  </si>
+  <si>
+    <t>0.655+/-0.003</t>
   </si>
   <si>
     <t>0.61+/-0.0</t>
   </si>
   <si>
-    <t>0.547</t>
-  </si>
-  <si>
-    <t>0.597+/-0.002</t>
-  </si>
-  <si>
-    <t>0.597+/-0.016</t>
-  </si>
-  <si>
-    <t>0.192</t>
-  </si>
-  <si>
-    <t>0.683+/-0.002</t>
-  </si>
-  <si>
-    <t>0.681+/-0.022</t>
-  </si>
-  <si>
-    <t>0.016+/-0.009</t>
-  </si>
-  <si>
-    <t>0.845+/-0.006</t>
-  </si>
-  <si>
-    <t>0.782+/-0.0</t>
-  </si>
-  <si>
-    <t>0.688</t>
-  </si>
-  <si>
-    <t>0.817+/-0.014</t>
-  </si>
-  <si>
-    <t>0.752+/-0.018</t>
-  </si>
-  <si>
-    <t>0.231</t>
-  </si>
-  <si>
-    <t>0.89+/-0.021</t>
-  </si>
-  <si>
-    <t>0.843+/-0.024</t>
-  </si>
-  <si>
-    <t>0.466</t>
-  </si>
-  <si>
-    <t>6.123+/-0.956</t>
-  </si>
-  <si>
-    <t>0.821+/-0.008</t>
-  </si>
-  <si>
-    <t>0.773+/-0.0</t>
-  </si>
-  <si>
-    <t>0.763</t>
-  </si>
-  <si>
-    <t>0.863+/-0.013</t>
-  </si>
-  <si>
-    <t>0.808+/-0.02</t>
-  </si>
-  <si>
-    <t>0.271</t>
-  </si>
-  <si>
-    <t>0.764+/-0.033</t>
-  </si>
-  <si>
-    <t>0.717+/-0.035</t>
-  </si>
-  <si>
-    <t>0.344</t>
-  </si>
-  <si>
-    <t>0.198+/-0.006</t>
-  </si>
-  <si>
-    <t>0.804+/-0.005</t>
-  </si>
-  <si>
-    <t>0.764+/-0.0</t>
-  </si>
-  <si>
-    <t>0.761</t>
-  </si>
-  <si>
-    <t>0.854+/-0.028</t>
-  </si>
-  <si>
-    <t>0.809+/-0.029</t>
-  </si>
-  <si>
-    <t>0.263</t>
-  </si>
-  <si>
-    <t>0.737+/-0.052</t>
-  </si>
-  <si>
-    <t>0.695+/-0.05</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>0.293+/-0.007</t>
-  </si>
-  <si>
-    <t>0.762+/-0.002</t>
-  </si>
-  <si>
-    <t>0.74+/-0.0</t>
-  </si>
-  <si>
-    <t>0.679</t>
-  </si>
-  <si>
-    <t>0.749+/-0.002</t>
-  </si>
-  <si>
-    <t>0.728+/-0.016</t>
-  </si>
-  <si>
-    <t>0.246</t>
-  </si>
-  <si>
-    <t>0.789+/-0.004</t>
-  </si>
-  <si>
-    <t>0.767+/-0.028</t>
-  </si>
-  <si>
-    <t>0.552</t>
-  </si>
-  <si>
-    <t>52.98+/-6.349</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.995+/-0.0</t>
-  </si>
-  <si>
-    <t>0.721+/-0.0</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.661+/-0.01</t>
-  </si>
-  <si>
-    <t>0.322</t>
-  </si>
-  <si>
-    <t>0.991+/-0.001</t>
-  </si>
-  <si>
-    <t>0.91+/-0.017</t>
-  </si>
-  <si>
-    <t>0.559</t>
-  </si>
-  <si>
-    <t>0.003+/-0.001</t>
-  </si>
-  <si>
-    <t>0.581+/-0.0</t>
-  </si>
-  <si>
-    <t>0.602</t>
-  </si>
-  <si>
-    <t>0.594+/-0.002</t>
-  </si>
-  <si>
-    <t>0.589+/-0.017</t>
-  </si>
-  <si>
-    <t>0.352</t>
-  </si>
-  <si>
-    <t>0.534+/-0.002</t>
-  </si>
-  <si>
-    <t>0.533+/-0.029</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>0.193+/-0.018</t>
-  </si>
-  <si>
-    <t>0.557+/-0.002</t>
-  </si>
-  <si>
-    <t>0.557+/-0.0</t>
-  </si>
-  <si>
-    <t>0.658</t>
-  </si>
-  <si>
-    <t>0.601+/-0.003</t>
-  </si>
-  <si>
-    <t>0.601+/-0.027</t>
-  </si>
-  <si>
-    <t>0.372</t>
-  </si>
-  <si>
-    <t>0.342+/-0.011</t>
-  </si>
-  <si>
-    <t>0.341+/-0.021</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.564+/-0.002</t>
-  </si>
-  <si>
-    <t>0.561+/-0.0</t>
-  </si>
-  <si>
-    <t>0.587</t>
-  </si>
-  <si>
-    <t>0.571+/-0.002</t>
-  </si>
-  <si>
-    <t>0.569+/-0.018</t>
-  </si>
-  <si>
-    <t>0.337</t>
-  </si>
-  <si>
-    <t>0.512+/-0.002</t>
-  </si>
-  <si>
-    <t>0.509+/-0.014</t>
-  </si>
-  <si>
-    <t>0.509</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.733+/-0.01</t>
-  </si>
-  <si>
-    <t>0.652+/-0.0</t>
-  </si>
-  <si>
-    <t>0.578</t>
-  </si>
-  <si>
-    <t>0.731+/-0.019</t>
-  </si>
-  <si>
-    <t>0.647+/-0.026</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>0.742+/-0.053</t>
-  </si>
-  <si>
-    <t>0.672+/-0.052</t>
-  </si>
-  <si>
-    <t>5.045+/-0.878</t>
-  </si>
-  <si>
-    <t>0.739+/-0.008</t>
-  </si>
-  <si>
-    <t>0.666+/-0.0</t>
-  </si>
-  <si>
-    <t>0.585</t>
-  </si>
-  <si>
-    <t>0.753+/-0.033</t>
-  </si>
-  <si>
-    <t>0.673+/-0.021</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.719+/-0.048</t>
-  </si>
-  <si>
-    <t>0.65+/-0.06</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>0.152+/-0.005</t>
-  </si>
-  <si>
-    <t>0.721+/-0.006</t>
-  </si>
-  <si>
-    <t>0.735+/-0.023</t>
-  </si>
-  <si>
-    <t>0.677+/-0.026</t>
-  </si>
-  <si>
-    <t>0.332</t>
-  </si>
-  <si>
-    <t>0.693+/-0.033</t>
-  </si>
-  <si>
-    <t>0.636+/-0.048</t>
-  </si>
-  <si>
-    <t>0.419</t>
-  </si>
-  <si>
-    <t>0.228+/-0.004</t>
-  </si>
-  <si>
-    <t>0.671+/-0.002</t>
-  </si>
-  <si>
-    <t>0.631+/-0.0</t>
-  </si>
-  <si>
-    <t>0.598</t>
-  </si>
-  <si>
-    <t>0.663+/-0.003</t>
-  </si>
-  <si>
-    <t>0.624+/-0.016</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>0.697+/-0.008</t>
-  </si>
-  <si>
-    <t>0.659+/-0.025</t>
-  </si>
-  <si>
-    <t>0.532</t>
-  </si>
-  <si>
-    <t>220.047+/-4.484</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.692+/-0.0</t>
-  </si>
-  <si>
-    <t>0.539</t>
-  </si>
-  <si>
-    <t>0.639+/-0.008</t>
-  </si>
-  <si>
-    <t>0.343</t>
-  </si>
-  <si>
-    <t>0.991+/-0.0</t>
-  </si>
-  <si>
-    <t>0.885+/-0.011</t>
-  </si>
-  <si>
-    <t>0.543</t>
-  </si>
-  <si>
-    <t>0.568+/-0.003</t>
-  </si>
-  <si>
-    <t>0.565+/-0.0</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>0.573+/-0.003</t>
-  </si>
-  <si>
-    <t>0.57+/-0.017</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.535+/-0.004</t>
-  </si>
-  <si>
-    <t>0.532+/-0.026</t>
-  </si>
-  <si>
-    <t>0.508</t>
-  </si>
-  <si>
-    <t>0.179+/-0.016</t>
-  </si>
-  <si>
-    <t>0.553+/-0.002</t>
-  </si>
-  <si>
-    <t>0.552+/-0.0</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.562+/-0.003</t>
-  </si>
-  <si>
-    <t>0.561+/-0.018</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>0.479+/-0.015</t>
-  </si>
-  <si>
-    <t>0.478+/-0.024</t>
-  </si>
-  <si>
-    <t>0.464</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.551+/-0.002</t>
-  </si>
-  <si>
-    <t>0.549+/-0.0</t>
-  </si>
-  <si>
-    <t>0.577</t>
-  </si>
-  <si>
-    <t>0.556+/-0.002</t>
-  </si>
-  <si>
-    <t>0.554+/-0.016</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.504+/-0.002</t>
-  </si>
-  <si>
-    <t>0.502+/-0.022</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>0.009+/-0.0</t>
-  </si>
-  <si>
-    <t>0.71+/-0.007</t>
-  </si>
-  <si>
-    <t>0.628+/-0.0</t>
-  </si>
-  <si>
-    <t>0.565</t>
-  </si>
-  <si>
-    <t>0.695+/-0.01</t>
-  </si>
-  <si>
-    <t>0.615+/-0.012</t>
-  </si>
-  <si>
-    <t>0.361</t>
-  </si>
-  <si>
-    <t>0.751+/-0.035</t>
-  </si>
-  <si>
-    <t>0.681+/-0.037</t>
-  </si>
-  <si>
-    <t>6.057+/-1.6</t>
-  </si>
-  <si>
-    <t>0.74+/-0.005</t>
-  </si>
-  <si>
-    <t>0.655+/-0.0</t>
-  </si>
-  <si>
-    <t>0.741+/-0.019</t>
-  </si>
-  <si>
-    <t>0.656+/-0.022</t>
-  </si>
-  <si>
-    <t>0.354</t>
-  </si>
-  <si>
-    <t>0.739+/-0.042</t>
-  </si>
-  <si>
-    <t>0.655+/-0.049</t>
-  </si>
-  <si>
-    <t>0.449</t>
-  </si>
-  <si>
-    <t>0.117+/-0.009</t>
-  </si>
-  <si>
-    <t>0.719+/-0.003</t>
-  </si>
-  <si>
-    <t>0.607</t>
-  </si>
-  <si>
-    <t>0.738+/-0.021</t>
-  </si>
-  <si>
-    <t>0.66+/-0.025</t>
-  </si>
-  <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>0.682+/-0.042</t>
-  </si>
-  <si>
-    <t>0.611+/-0.055</t>
-  </si>
-  <si>
-    <t>0.363</t>
-  </si>
-  <si>
-    <t>0.159+/-0.011</t>
-  </si>
-  <si>
-    <t>0.656+/-0.002</t>
-  </si>
-  <si>
-    <t>0.612+/-0.0</t>
-  </si>
-  <si>
-    <t>0.649+/-0.002</t>
-  </si>
-  <si>
-    <t>0.606+/-0.014</t>
-  </si>
-  <si>
-    <t>0.382</t>
-  </si>
-  <si>
-    <t>0.681+/-0.009</t>
-  </si>
-  <si>
-    <t>0.641+/-0.026</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>38.117+/-2.927</t>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>0.643+/-0.003</t>
+  </si>
+  <si>
+    <t>0.601+/-0.013</t>
+  </si>
+  <si>
+    <t>0.373</t>
+  </si>
+  <si>
+    <t>0.7+/-0.008</t>
+  </si>
+  <si>
+    <t>0.655+/-0.019</t>
+  </si>
+  <si>
+    <t>0.557</t>
+  </si>
+  <si>
+    <t>29.843+/-0.298</t>
   </si>
 </sst>
 </file>
@@ -1437,16 +1431,16 @@
         <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1469,16 +1463,16 @@
         <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1501,16 +1495,16 @@
         <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1533,16 +1527,16 @@
         <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1565,16 +1559,16 @@
         <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1597,16 +1591,16 @@
         <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1629,16 +1623,16 @@
         <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1661,16 +1655,16 @@
         <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1690,19 +1684,19 @@
         <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1722,19 +1716,19 @@
         <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1787,28 +1781,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1819,28 +1813,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1848,31 +1842,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1883,28 +1877,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J5" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1915,25 +1909,25 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J6" t="s">
         <v>177</v>
@@ -1947,25 +1941,25 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J7" t="s">
         <v>178</v>
@@ -1979,25 +1973,25 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J8" t="s">
         <v>179</v>
@@ -2011,25 +2005,25 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J9" t="s">
         <v>180</v>
@@ -2043,25 +2037,25 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J10" t="s">
         <v>181</v>
@@ -2072,28 +2066,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J11" t="s">
         <v>182</v>
@@ -2152,22 +2146,22 @@
         <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F2" t="s">
         <v>213</v>
       </c>
       <c r="G2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J2" t="s">
         <v>250</v>
@@ -2187,19 +2181,19 @@
         <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F3" t="s">
         <v>214</v>
       </c>
       <c r="G3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I3" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="J3" t="s">
         <v>251</v>
@@ -2213,25 +2207,25 @@
         <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D4" t="s">
         <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F4" t="s">
         <v>215</v>
       </c>
       <c r="G4" t="s">
-        <v>225</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>233</v>
       </c>
       <c r="J4" t="s">
         <v>252</v>
@@ -2245,22 +2239,22 @@
         <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>197</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F5" t="s">
         <v>216</v>
       </c>
       <c r="G5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I5" t="s">
         <v>243</v>
@@ -2280,19 +2274,19 @@
         <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F6" t="s">
         <v>217</v>
       </c>
       <c r="G6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I6" t="s">
         <v>244</v>
@@ -2312,19 +2306,19 @@
         <v>190</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F7" t="s">
         <v>218</v>
       </c>
       <c r="G7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I7" t="s">
         <v>245</v>
@@ -2344,19 +2338,19 @@
         <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" t="s">
         <v>219</v>
       </c>
       <c r="G8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I8" t="s">
         <v>246</v>
@@ -2376,19 +2370,19 @@
         <v>192</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
         <v>220</v>
       </c>
       <c r="G9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I9" t="s">
         <v>247</v>
@@ -2408,19 +2402,19 @@
         <v>193</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="F10" t="s">
         <v>221</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="H10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I10" t="s">
         <v>248</v>
@@ -2440,19 +2434,19 @@
         <v>194</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
         <v>212</v>
       </c>
       <c r="F11" t="s">
-        <v>222</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I11" t="s">
         <v>249</v>
@@ -2511,28 +2505,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2543,28 +2537,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>310</v>
+        <v>223</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>316</v>
       </c>
       <c r="J3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2575,28 +2569,28 @@
         <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D4" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="E4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G4" t="s">
-        <v>302</v>
+        <v>181</v>
       </c>
       <c r="H4" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="I4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J4" t="s">
-        <v>234</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2607,28 +2601,28 @@
         <v>261</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2639,28 +2633,28 @@
         <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2671,28 +2665,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F7" t="s">
-        <v>295</v>
+        <v>236</v>
       </c>
       <c r="G7" t="s">
-        <v>305</v>
+        <v>236</v>
       </c>
       <c r="H7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2703,28 +2697,28 @@
         <v>262</v>
       </c>
       <c r="C8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F8" t="s">
         <v>296</v>
       </c>
       <c r="G8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2735,28 +2729,28 @@
         <v>262</v>
       </c>
       <c r="C9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F9" t="s">
         <v>297</v>
       </c>
       <c r="G9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2767,28 +2761,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>269</v>
+        <v>188</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F10" t="s">
         <v>298</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>279</v>
       </c>
       <c r="H10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I10" t="s">
-        <v>325</v>
+        <v>188</v>
       </c>
       <c r="J10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2799,28 +2793,28 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F11" t="s">
-        <v>299</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H11" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_25_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_25_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="422">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -73,952 +73,1216 @@
     <t>Recall Test</t>
   </si>
   <si>
+    <t>AUC - Train</t>
+  </si>
+  <si>
+    <t>AUC - Validation</t>
+  </si>
+  <si>
+    <t>AUC - Test</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>0.5+/-0.0</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
     <t>0.798</t>
   </si>
   <si>
-    <t>0.05+/-0.15</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.1+/-0.3</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
   </si>
   <si>
     <t>0.994+/-0.0</t>
   </si>
   <si>
-    <t>0.787+/-0.0</t>
-  </si>
-  <si>
-    <t>0.602</t>
+    <t>0.608+/-0.0</t>
+  </si>
+  <si>
+    <t>0.786</t>
   </si>
   <si>
     <t>0.989+/-0.0</t>
   </si>
   <si>
-    <t>0.709+/-0.011</t>
-  </si>
-  <si>
-    <t>0.281</t>
+    <t>0.285+/-0.013</t>
+  </si>
+  <si>
+    <t>0.39</t>
   </si>
   <si>
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.973+/-0.01</t>
-  </si>
-  <si>
-    <t>0.624</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.65+/-0.002</t>
+    <t>0.627+/-0.03</t>
+  </si>
+  <si>
+    <t>0.109</t>
+  </si>
+  <si>
+    <t>0.999+/-0.002</t>
+  </si>
+  <si>
+    <t>0.663+/-0.021</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.646+/-0.002</t>
+  </si>
+  <si>
+    <t>0.612+/-0.0</t>
+  </si>
+  <si>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>0.634+/-0.002</t>
+  </si>
+  <si>
+    <t>0.294+/-0.012</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.692+/-0.008</t>
+  </si>
+  <si>
+    <t>0.663+/-0.042</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>0.7+/-0.002</t>
+  </si>
+  <si>
+    <t>0.683+/-0.02</t>
+  </si>
+  <si>
+    <t>0.666</t>
+  </si>
+  <si>
+    <t>0.351+/-0.039</t>
+  </si>
+  <si>
+    <t>0.58+/-0.004</t>
+  </si>
+  <si>
+    <t>0.443+/-0.0</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>0.556+/-0.003</t>
+  </si>
+  <si>
+    <t>0.235+/-0.009</t>
+  </si>
+  <si>
+    <t>0.256</t>
+  </si>
+  <si>
+    <t>0.802+/-0.011</t>
+  </si>
+  <si>
+    <t>0.784+/-0.033</t>
+  </si>
+  <si>
+    <t>0.517</t>
+  </si>
+  <si>
+    <t>0.645+/-0.004</t>
+  </si>
+  <si>
+    <t>0.633+/-0.024</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.014+/-0.004</t>
+  </si>
+  <si>
+    <t>0.601+/-0.004</t>
+  </si>
+  <si>
+    <t>0.556+/-0.0</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>0.589+/-0.003</t>
+  </si>
+  <si>
+    <t>0.26+/-0.015</t>
+  </si>
+  <si>
+    <t>0.265</t>
+  </si>
+  <si>
+    <t>0.67+/-0.009</t>
+  </si>
+  <si>
+    <t>0.653+/-0.035</t>
+  </si>
+  <si>
+    <t>0.317</t>
+  </si>
+  <si>
+    <t>0.637+/-0.003</t>
+  </si>
+  <si>
+    <t>0.622+/-0.025</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.029+/-0.03</t>
+  </si>
+  <si>
+    <t>0.819+/-0.011</t>
+  </si>
+  <si>
+    <t>0.669+/-0.0</t>
+  </si>
+  <si>
+    <t>0.772</t>
+  </si>
+  <si>
+    <t>0.795+/-0.016</t>
+  </si>
+  <si>
+    <t>0.317+/-0.023</t>
+  </si>
+  <si>
+    <t>0.401</t>
+  </si>
+  <si>
+    <t>0.862+/-0.036</t>
+  </si>
+  <si>
+    <t>0.547+/-0.04</t>
+  </si>
+  <si>
+    <t>0.264</t>
+  </si>
+  <si>
+    <t>0.899+/-0.008</t>
+  </si>
+  <si>
+    <t>0.671+/-0.023</t>
+  </si>
+  <si>
+    <t>0.662</t>
+  </si>
+  <si>
+    <t>11.425+/-1.956</t>
+  </si>
+  <si>
+    <t>0.792+/-0.008</t>
+  </si>
+  <si>
+    <t>0.664+/-0.0</t>
+  </si>
+  <si>
+    <t>0.787</t>
+  </si>
+  <si>
+    <t>0.776+/-0.018</t>
+  </si>
+  <si>
+    <t>0.301+/-0.022</t>
+  </si>
+  <si>
+    <t>0.413</t>
+  </si>
+  <si>
+    <t>0.822+/-0.034</t>
+  </si>
+  <si>
+    <t>0.503+/-0.054</t>
+  </si>
+  <si>
+    <t>0.139</t>
+  </si>
+  <si>
+    <t>0.891+/-0.008</t>
+  </si>
+  <si>
+    <t>0.645+/-0.032</t>
+  </si>
+  <si>
+    <t>0.656</t>
+  </si>
+  <si>
+    <t>0.22+/-0.009</t>
+  </si>
+  <si>
+    <t>0.775+/-0.009</t>
   </si>
   <si>
     <t>0.649+/-0.0</t>
   </si>
   <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>0.638+/-0.002</t>
-  </si>
-  <si>
-    <t>0.636+/-0.009</t>
-  </si>
-  <si>
-    <t>0.276</t>
-  </si>
-  <si>
-    <t>0.696+/-0.004</t>
-  </si>
-  <si>
-    <t>0.694+/-0.017</t>
-  </si>
-  <si>
-    <t>0.635</t>
-  </si>
-  <si>
-    <t>0.288+/-0.01</t>
-  </si>
-  <si>
-    <t>0.581+/-0.002</t>
+    <t>0.785</t>
+  </si>
+  <si>
+    <t>0.75+/-0.01</t>
+  </si>
+  <si>
+    <t>0.29+/-0.021</t>
+  </si>
+  <si>
+    <t>0.385</t>
+  </si>
+  <si>
+    <t>0.825+/-0.024</t>
+  </si>
+  <si>
+    <t>0.511+/-0.037</t>
+  </si>
+  <si>
+    <t>0.112</t>
+  </si>
+  <si>
+    <t>0.878+/-0.009</t>
+  </si>
+  <si>
+    <t>0.64+/-0.025</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>0.322+/-0.011</t>
+  </si>
+  <si>
+    <t>0.746+/-0.003</t>
+  </si>
+  <si>
+    <t>0.659+/-0.0</t>
+  </si>
+  <si>
+    <t>0.721+/-0.004</t>
+  </si>
+  <si>
+    <t>0.32+/-0.025</t>
+  </si>
+  <si>
+    <t>0.478</t>
+  </si>
+  <si>
+    <t>0.801+/-0.006</t>
+  </si>
+  <si>
+    <t>0.619+/-0.051</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>0.833+/-0.003</t>
+  </si>
+  <si>
+    <t>0.703+/-0.029</t>
+  </si>
+  <si>
+    <t>0.668</t>
+  </si>
+  <si>
+    <t>61.397+/-1.52</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.631+/-0.0</t>
+  </si>
+  <si>
+    <t>0.841</t>
+  </si>
+  <si>
+    <t>0.988+/-0.0</t>
+  </si>
+  <si>
+    <t>0.225+/-0.014</t>
+  </si>
+  <si>
+    <t>0.361</t>
+  </si>
+  <si>
+    <t>0.6+/-0.047</t>
+  </si>
+  <si>
+    <t>0.079</t>
+  </si>
+  <si>
+    <t>0.998+/-0.003</t>
+  </si>
+  <si>
+    <t>0.666+/-0.023</t>
+  </si>
+  <si>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.656+/-0.004</t>
+  </si>
+  <si>
+    <t>0.636+/-0.0</t>
+  </si>
+  <si>
+    <t>0.846</t>
+  </si>
+  <si>
+    <t>0.65+/-0.004</t>
+  </si>
+  <si>
+    <t>0.238+/-0.013</t>
+  </si>
+  <si>
+    <t>0.678+/-0.008</t>
+  </si>
+  <si>
+    <t>0.651+/-0.045</t>
+  </si>
+  <si>
+    <t>0.717+/-0.004</t>
+  </si>
+  <si>
+    <t>0.697+/-0.023</t>
+  </si>
+  <si>
+    <t>0.46+/-0.074</t>
+  </si>
+  <si>
+    <t>0.586+/-0.005</t>
+  </si>
+  <si>
+    <t>0.459+/-0.0</t>
+  </si>
+  <si>
+    <t>0.672</t>
+  </si>
+  <si>
+    <t>0.563+/-0.004</t>
+  </si>
+  <si>
+    <t>0.184+/-0.012</t>
+  </si>
+  <si>
+    <t>0.221</t>
+  </si>
+  <si>
+    <t>0.767+/-0.013</t>
+  </si>
+  <si>
+    <t>0.757+/-0.033</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.655+/-0.005</t>
+  </si>
+  <si>
+    <t>0.647+/-0.028</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.611+/-0.003</t>
+  </si>
+  <si>
+    <t>0.557+/-0.0</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>0.597+/-0.002</t>
+  </si>
+  <si>
+    <t>0.203+/-0.016</t>
+  </si>
+  <si>
+    <t>0.204</t>
+  </si>
+  <si>
+    <t>0.686+/-0.008</t>
+  </si>
+  <si>
+    <t>0.665+/-0.031</t>
+  </si>
+  <si>
+    <t>0.287</t>
+  </si>
+  <si>
+    <t>0.632+/-0.024</t>
+  </si>
+  <si>
+    <t>0.605</t>
+  </si>
+  <si>
+    <t>0.018+/-0.005</t>
+  </si>
+  <si>
+    <t>0.854+/-0.01</t>
+  </si>
+  <si>
+    <t>0.694+/-0.0</t>
+  </si>
+  <si>
+    <t>0.818+/-0.009</t>
+  </si>
+  <si>
+    <t>0.253+/-0.022</t>
+  </si>
+  <si>
+    <t>0.369</t>
+  </si>
+  <si>
+    <t>0.913+/-0.029</t>
+  </si>
+  <si>
+    <t>0.534+/-0.046</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>0.926+/-0.007</t>
+  </si>
+  <si>
+    <t>0.673+/-0.024</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>12.346+/-1.906</t>
+  </si>
+  <si>
+    <t>0.821+/-0.008</t>
+  </si>
+  <si>
+    <t>0.696+/-0.0</t>
+  </si>
+  <si>
+    <t>0.828</t>
+  </si>
+  <si>
+    <t>0.808+/-0.033</t>
+  </si>
+  <si>
+    <t>0.233+/-0.032</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.847+/-0.066</t>
+  </si>
+  <si>
+    <t>0.44+/-0.075</t>
+  </si>
+  <si>
+    <t>0.093</t>
+  </si>
+  <si>
+    <t>0.916+/-0.006</t>
+  </si>
+  <si>
+    <t>0.624+/-0.028</t>
+  </si>
+  <si>
+    <t>0.248+/-0.013</t>
+  </si>
+  <si>
+    <t>0.808+/-0.008</t>
+  </si>
+  <si>
+    <t>0.72+/-0.0</t>
+  </si>
+  <si>
+    <t>0.832</t>
+  </si>
+  <si>
+    <t>0.817+/-0.045</t>
+  </si>
+  <si>
+    <t>0.252+/-0.032</t>
+  </si>
+  <si>
+    <t>0.345</t>
+  </si>
+  <si>
+    <t>0.802+/-0.067</t>
+  </si>
+  <si>
+    <t>0.421+/-0.071</t>
+  </si>
+  <si>
+    <t>0.136</t>
+  </si>
+  <si>
+    <t>0.909+/-0.007</t>
+  </si>
+  <si>
+    <t>0.64+/-0.018</t>
+  </si>
+  <si>
+    <t>0.629</t>
+  </si>
+  <si>
+    <t>0.349+/-0.024</t>
+  </si>
+  <si>
+    <t>0.767+/-0.004</t>
+  </si>
+  <si>
+    <t>0.687+/-0.0</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.748+/-0.004</t>
+  </si>
+  <si>
+    <t>0.261+/-0.019</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.807+/-0.014</t>
+  </si>
+  <si>
+    <t>0.592+/-0.044</t>
+  </si>
+  <si>
+    <t>0.018</t>
+  </si>
+  <si>
+    <t>0.854+/-0.003</t>
+  </si>
+  <si>
+    <t>0.703+/-0.019</t>
+  </si>
+  <si>
+    <t>0.634</t>
+  </si>
+  <si>
+    <t>66.96+/-2.186</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.995+/-0.001</t>
+  </si>
+  <si>
+    <t>0.543+/-0.0</t>
+  </si>
+  <si>
+    <t>0.698</t>
+  </si>
+  <si>
+    <t>0.316+/-0.016</t>
+  </si>
+  <si>
+    <t>0.364</t>
+  </si>
+  <si>
+    <t>0.991+/-0.002</t>
+  </si>
+  <si>
+    <t>0.556+/-0.028</t>
+  </si>
+  <si>
+    <t>0.122</t>
+  </si>
+  <si>
+    <t>0.562+/-0.02</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.006+/-0.002</t>
+  </si>
+  <si>
+    <t>0.583+/-0.003</t>
+  </si>
+  <si>
+    <t>0.605+/-0.0</t>
+  </si>
+  <si>
+    <t>0.593+/-0.003</t>
+  </si>
+  <si>
+    <t>0.355+/-0.013</t>
+  </si>
+  <si>
+    <t>0.542</t>
+  </si>
+  <si>
+    <t>0.528+/-0.009</t>
+  </si>
+  <si>
+    <t>0.519+/-0.032</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.623+/-0.004</t>
+  </si>
+  <si>
+    <t>0.613+/-0.015</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.179+/-0.014</t>
+  </si>
+  <si>
+    <t>0.554+/-0.003</t>
+  </si>
+  <si>
+    <t>0.667+/-0.0</t>
+  </si>
+  <si>
+    <t>0.608+/-0.004</t>
+  </si>
+  <si>
+    <t>0.378+/-0.026</t>
+  </si>
+  <si>
+    <t>0.301+/-0.013</t>
+  </si>
+  <si>
+    <t>0.307+/-0.025</t>
+  </si>
+  <si>
+    <t>0.596+/-0.001</t>
+  </si>
+  <si>
+    <t>0.591+/-0.02</t>
+  </si>
+  <si>
+    <t>0.588</t>
+  </si>
+  <si>
+    <t>0.011+/-0.001</t>
+  </si>
+  <si>
+    <t>0.561+/-0.005</t>
+  </si>
+  <si>
+    <t>0.584+/-0.0</t>
+  </si>
+  <si>
+    <t>0.632</t>
+  </si>
+  <si>
+    <t>0.567+/-0.005</t>
+  </si>
+  <si>
+    <t>0.337+/-0.018</t>
+  </si>
+  <si>
+    <t>0.342</t>
+  </si>
+  <si>
+    <t>0.51+/-0.007</t>
+  </si>
+  <si>
+    <t>0.513+/-0.021</t>
+  </si>
+  <si>
+    <t>0.357</t>
+  </si>
+  <si>
+    <t>0.587+/-0.004</t>
+  </si>
+  <si>
+    <t>0.586+/-0.018</t>
+  </si>
+  <si>
+    <t>0.589</t>
+  </si>
+  <si>
+    <t>0.018+/-0.009</t>
+  </si>
+  <si>
+    <t>0.734+/-0.01</t>
+  </si>
+  <si>
+    <t>0.575+/-0.0</t>
+  </si>
+  <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>0.723+/-0.031</t>
+  </si>
+  <si>
+    <t>0.322+/-0.022</t>
+  </si>
+  <si>
+    <t>0.543</t>
+  </si>
+  <si>
+    <t>0.766+/-0.054</t>
+  </si>
+  <si>
+    <t>0.474+/-0.071</t>
+  </si>
+  <si>
+    <t>0.111</t>
+  </si>
+  <si>
+    <t>0.815+/-0.011</t>
+  </si>
+  <si>
+    <t>0.555+/-0.02</t>
+  </si>
+  <si>
+    <t>0.594</t>
+  </si>
+  <si>
+    <t>12.888+/-3.518</t>
+  </si>
+  <si>
+    <t>0.754+/-0.014</t>
+  </si>
+  <si>
+    <t>0.625+/-0.0</t>
+  </si>
+  <si>
+    <t>0.697</t>
+  </si>
+  <si>
+    <t>0.791+/-0.039</t>
+  </si>
+  <si>
+    <t>0.329+/-0.018</t>
+  </si>
+  <si>
+    <t>0.386</t>
+  </si>
+  <si>
+    <t>0.695+/-0.037</t>
+  </si>
+  <si>
+    <t>0.345+/-0.082</t>
+  </si>
+  <si>
+    <t>0.161</t>
+  </si>
+  <si>
+    <t>0.851+/-0.014</t>
+  </si>
+  <si>
+    <t>0.558+/-0.021</t>
+  </si>
+  <si>
+    <t>0.16+/-0.014</t>
+  </si>
+  <si>
+    <t>0.734+/-0.012</t>
+  </si>
+  <si>
+    <t>0.607+/-0.0</t>
+  </si>
+  <si>
+    <t>0.712</t>
+  </si>
+  <si>
+    <t>0.762+/-0.033</t>
+  </si>
+  <si>
+    <t>0.316+/-0.026</t>
+  </si>
+  <si>
+    <t>0.443</t>
+  </si>
+  <si>
+    <t>0.686+/-0.049</t>
+  </si>
+  <si>
+    <t>0.349+/-0.057</t>
+  </si>
+  <si>
+    <t>0.151</t>
+  </si>
+  <si>
+    <t>0.83+/-0.013</t>
+  </si>
+  <si>
+    <t>0.548+/-0.017</t>
+  </si>
+  <si>
+    <t>0.558</t>
+  </si>
+  <si>
+    <t>0.233+/-0.018</t>
+  </si>
+  <si>
+    <t>0.664+/-0.002</t>
+  </si>
+  <si>
+    <t>0.588+/-0.0</t>
+  </si>
+  <si>
+    <t>0.721</t>
+  </si>
+  <si>
+    <t>0.659+/-0.003</t>
+  </si>
+  <si>
+    <t>0.342+/-0.013</t>
+  </si>
+  <si>
+    <t>0.417</t>
+  </si>
+  <si>
+    <t>0.681+/-0.013</t>
+  </si>
+  <si>
+    <t>0.526+/-0.024</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>0.736+/-0.002</t>
+  </si>
+  <si>
+    <t>0.599+/-0.023</t>
+  </si>
+  <si>
+    <t>56.257+/-1.205</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.994+/-0.002</t>
+  </si>
+  <si>
+    <t>0.528+/-0.0</t>
+  </si>
+  <si>
+    <t>0.653</t>
+  </si>
+  <si>
+    <t>0.996+/-0.008</t>
+  </si>
+  <si>
+    <t>0.992+/-0.004</t>
+  </si>
+  <si>
+    <t>0.551+/-0.031</t>
+  </si>
+  <si>
+    <t>0.552+/-0.022</t>
+  </si>
+  <si>
+    <t>0.562</t>
+  </si>
+  <si>
+    <t>0.007+/-0.002</t>
+  </si>
+  <si>
+    <t>0.567+/-0.004</t>
   </si>
   <si>
     <t>0.58+/-0.0</t>
   </si>
   <si>
-    <t>0.442</t>
-  </si>
-  <si>
-    <t>0.556+/-0.001</t>
-  </si>
-  <si>
-    <t>0.556+/-0.01</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>0.794+/-0.007</t>
-  </si>
-  <si>
-    <t>0.794+/-0.019</t>
-  </si>
-  <si>
-    <t>0.749</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.601+/-0.001</t>
+    <t>0.574+/-0.004</t>
+  </si>
+  <si>
+    <t>0.369+/-0.018</t>
+  </si>
+  <si>
+    <t>0.514+/-0.006</t>
+  </si>
+  <si>
+    <t>0.51+/-0.021</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>0.6+/-0.004</t>
+  </si>
+  <si>
+    <t>0.587+/-0.018</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.194+/-0.025</t>
+  </si>
+  <si>
+    <t>0.551+/-0.004</t>
   </si>
   <si>
     <t>0.601+/-0.0</t>
   </si>
   <si>
-    <t>0.543</t>
-  </si>
-  <si>
-    <t>0.589+/-0.001</t>
-  </si>
-  <si>
-    <t>0.589+/-0.012</t>
-  </si>
-  <si>
-    <t>0.246</t>
-  </si>
-  <si>
-    <t>0.67+/-0.003</t>
-  </si>
-  <si>
-    <t>0.669+/-0.019</t>
-  </si>
-  <si>
-    <t>0.613</t>
-  </si>
-  <si>
-    <t>0.009+/-0.0</t>
-  </si>
-  <si>
-    <t>0.813+/-0.011</t>
-  </si>
-  <si>
-    <t>0.746+/-0.0</t>
-  </si>
-  <si>
-    <t>0.657</t>
-  </si>
-  <si>
-    <t>0.791+/-0.016</t>
-  </si>
-  <si>
-    <t>0.726+/-0.013</t>
-  </si>
-  <si>
-    <t>0.297</t>
-  </si>
-  <si>
-    <t>0.852+/-0.033</t>
-  </si>
-  <si>
-    <t>0.791+/-0.033</t>
-  </si>
-  <si>
-    <t>0.515</t>
-  </si>
-  <si>
-    <t>4.916+/-1.313</t>
-  </si>
-  <si>
-    <t>0.792+/-0.007</t>
-  </si>
-  <si>
-    <t>0.732+/-0.0</t>
-  </si>
-  <si>
-    <t>0.647</t>
-  </si>
-  <si>
-    <t>0.766+/-0.013</t>
-  </si>
-  <si>
-    <t>0.71+/-0.016</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>0.841+/-0.02</t>
-  </si>
-  <si>
-    <t>0.786+/-0.029</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>0.147+/-0.013</t>
-  </si>
-  <si>
-    <t>0.775+/-0.007</t>
-  </si>
-  <si>
-    <t>0.726+/-0.0</t>
-  </si>
-  <si>
-    <t>0.622</t>
-  </si>
-  <si>
-    <t>0.761+/-0.031</t>
-  </si>
-  <si>
-    <t>0.714+/-0.032</t>
-  </si>
-  <si>
-    <t>0.277</t>
-  </si>
-  <si>
-    <t>0.808+/-0.051</t>
-  </si>
-  <si>
-    <t>0.761+/-0.052</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>0.204+/-0.006</t>
-  </si>
-  <si>
-    <t>0.744+/-0.002</t>
-  </si>
-  <si>
-    <t>0.719+/-0.0</t>
-  </si>
-  <si>
-    <t>0.645</t>
-  </si>
-  <si>
-    <t>0.718+/-0.002</t>
-  </si>
-  <si>
-    <t>0.695+/-0.017</t>
-  </si>
-  <si>
-    <t>0.306</t>
-  </si>
-  <si>
-    <t>0.804+/-0.005</t>
-  </si>
-  <si>
-    <t>0.781+/-0.023</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>35.507+/-0.983</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.001+/-0.0</t>
-  </si>
-  <si>
-    <t>0.992+/-0.006</t>
-  </si>
-  <si>
-    <t>0.805+/-0.0</t>
-  </si>
-  <si>
-    <t>0.607</t>
-  </si>
-  <si>
-    <t>0.989+/-0.002</t>
-  </si>
-  <si>
-    <t>0.725+/-0.01</t>
-  </si>
-  <si>
-    <t>0.215</t>
-  </si>
-  <si>
-    <t>0.995+/-0.014</t>
-  </si>
-  <si>
-    <t>0.984+/-0.014</t>
-  </si>
-  <si>
-    <t>0.609</t>
-  </si>
-  <si>
-    <t>0.656+/-0.001</t>
-  </si>
-  <si>
-    <t>0.654+/-0.0</t>
-  </si>
-  <si>
-    <t>0.625</t>
-  </si>
-  <si>
-    <t>0.651+/-0.001</t>
-  </si>
-  <si>
-    <t>0.649+/-0.01</t>
-  </si>
-  <si>
-    <t>0.226</t>
-  </si>
-  <si>
-    <t>0.671+/-0.003</t>
-  </si>
-  <si>
-    <t>0.67+/-0.023</t>
+    <t>0.569+/-0.004</t>
+  </si>
+  <si>
+    <t>0.368+/-0.019</t>
+  </si>
+  <si>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>0.416+/-0.032</t>
+  </si>
+  <si>
+    <t>0.409+/-0.029</t>
+  </si>
+  <si>
+    <t>0.578+/-0.002</t>
+  </si>
+  <si>
+    <t>0.574+/-0.012</t>
+  </si>
+  <si>
+    <t>0.586</t>
+  </si>
+  <si>
+    <t>0.009+/-0.001</t>
+  </si>
+  <si>
+    <t>0.552+/-0.003</t>
+  </si>
+  <si>
+    <t>0.568+/-0.0</t>
   </si>
   <si>
     <t>0.616</t>
   </si>
   <si>
-    <t>0.318+/-0.026</t>
-  </si>
-  <si>
-    <t>0.588+/-0.002</t>
-  </si>
-  <si>
-    <t>0.587+/-0.0</t>
-  </si>
-  <si>
-    <t>0.453</t>
-  </si>
-  <si>
-    <t>0.565+/-0.001</t>
-  </si>
-  <si>
-    <t>0.564+/-0.011</t>
-  </si>
-  <si>
-    <t>0.177</t>
-  </si>
-  <si>
-    <t>0.765+/-0.003</t>
-  </si>
-  <si>
-    <t>0.764+/-0.019</t>
-  </si>
-  <si>
-    <t>0.728</t>
-  </si>
-  <si>
-    <t>0.612+/-0.001</t>
-  </si>
-  <si>
-    <t>0.612+/-0.0</t>
-  </si>
-  <si>
-    <t>0.544</t>
-  </si>
-  <si>
-    <t>0.597+/-0.001</t>
-  </si>
-  <si>
-    <t>0.597+/-0.015</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>0.69+/-0.002</t>
-  </si>
-  <si>
-    <t>0.69+/-0.014</t>
-  </si>
-  <si>
-    <t>0.627</t>
-  </si>
-  <si>
-    <t>0.848+/-0.01</t>
-  </si>
-  <si>
-    <t>0.79+/-0.0</t>
-  </si>
-  <si>
-    <t>0.677</t>
-  </si>
-  <si>
-    <t>0.822+/-0.014</t>
-  </si>
-  <si>
-    <t>0.764+/-0.018</t>
-  </si>
-  <si>
-    <t>0.222</t>
-  </si>
-  <si>
-    <t>0.888+/-0.019</t>
-  </si>
-  <si>
-    <t>0.841+/-0.022</t>
-  </si>
-  <si>
-    <t>0.462</t>
-  </si>
-  <si>
-    <t>4.927+/-1.301</t>
-  </si>
-  <si>
-    <t>0.822+/-0.006</t>
-  </si>
-  <si>
-    <t>0.776+/-0.0</t>
-  </si>
-  <si>
-    <t>0.758</t>
-  </si>
-  <si>
-    <t>0.846+/-0.029</t>
-  </si>
-  <si>
-    <t>0.793+/-0.031</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>0.793+/-0.051</t>
-  </si>
-  <si>
-    <t>0.751+/-0.055</t>
-  </si>
-  <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>0.15+/-0.009</t>
-  </si>
-  <si>
-    <t>0.806+/-0.004</t>
-  </si>
-  <si>
-    <t>0.766+/-0.0</t>
-  </si>
-  <si>
-    <t>0.751</t>
-  </si>
-  <si>
-    <t>0.841+/-0.036</t>
-  </si>
-  <si>
-    <t>0.798+/-0.037</t>
-  </si>
-  <si>
-    <t>0.245</t>
-  </si>
-  <si>
-    <t>0.761+/-0.059</t>
-  </si>
-  <si>
-    <t>0.718+/-0.055</t>
-  </si>
-  <si>
-    <t>0.319</t>
-  </si>
-  <si>
-    <t>0.214+/-0.005</t>
-  </si>
-  <si>
-    <t>0.763+/-0.001</t>
-  </si>
-  <si>
-    <t>0.742+/-0.0</t>
+    <t>0.557+/-0.004</t>
+  </si>
+  <si>
+    <t>0.357+/-0.016</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.509+/-0.006</t>
+  </si>
+  <si>
+    <t>0.505+/-0.027</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>0.565+/-0.002</t>
+  </si>
+  <si>
+    <t>0.565+/-0.014</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>0.016+/-0.006</t>
+  </si>
+  <si>
+    <t>0.72+/-0.009</t>
+  </si>
+  <si>
+    <t>0.56+/-0.0</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.72+/-0.029</t>
+  </si>
+  <si>
+    <t>0.339+/-0.025</t>
+  </si>
+  <si>
+    <t>0.418</t>
+  </si>
+  <si>
+    <t>0.731+/-0.07</t>
+  </si>
+  <si>
+    <t>0.443+/-0.077</t>
+  </si>
+  <si>
+    <t>0.209</t>
+  </si>
+  <si>
+    <t>0.805+/-0.006</t>
+  </si>
+  <si>
+    <t>0.547+/-0.016</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>11.216+/-2.566</t>
+  </si>
+  <si>
+    <t>0.738+/-0.008</t>
+  </si>
+  <si>
+    <t>0.586+/-0.0</t>
+  </si>
+  <si>
+    <t>0.75+/-0.022</t>
+  </si>
+  <si>
+    <t>0.345+/-0.028</t>
+  </si>
+  <si>
+    <t>0.426</t>
+  </si>
+  <si>
+    <t>0.719+/-0.059</t>
+  </si>
+  <si>
+    <t>0.378+/-0.055</t>
+  </si>
+  <si>
+    <t>0.166</t>
+  </si>
+  <si>
+    <t>0.836+/-0.009</t>
+  </si>
+  <si>
+    <t>0.537+/-0.015</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>0.184+/-0.015</t>
+  </si>
+  <si>
+    <t>0.716+/-0.009</t>
+  </si>
+  <si>
+    <t>0.593+/-0.0</t>
   </si>
   <si>
     <t>0.676</t>
   </si>
   <si>
-    <t>0.723+/-0.012</t>
-  </si>
-  <si>
-    <t>0.248</t>
-  </si>
-  <si>
-    <t>0.802+/-0.003</t>
-  </si>
-  <si>
-    <t>0.783+/-0.009</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>38.518+/-0.516</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.995+/-0.0</t>
-  </si>
-  <si>
-    <t>0.717+/-0.0</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>0.654+/-0.007</t>
-  </si>
-  <si>
-    <t>0.328</t>
-  </si>
-  <si>
-    <t>0.99+/-0.0</t>
-  </si>
-  <si>
-    <t>0.92+/-0.009</t>
-  </si>
-  <si>
-    <t>0.563</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.579+/-0.0</t>
-  </si>
-  <si>
-    <t>0.603</t>
-  </si>
-  <si>
-    <t>0.59+/-0.002</t>
-  </si>
-  <si>
-    <t>0.354</t>
-  </si>
-  <si>
-    <t>0.527+/-0.005</t>
-  </si>
-  <si>
-    <t>0.525+/-0.033</t>
-  </si>
-  <si>
-    <t>0.526</t>
-  </si>
-  <si>
-    <t>0.173+/-0.017</t>
-  </si>
-  <si>
-    <t>0.554+/-0.002</t>
-  </si>
-  <si>
-    <t>0.553+/-0.0</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.6+/-0.003</t>
-  </si>
-  <si>
-    <t>0.599+/-0.02</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.324+/-0.01</t>
-  </si>
-  <si>
-    <t>0.322+/-0.011</t>
-  </si>
-  <si>
-    <t>0.336</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.56+/-0.001</t>
-  </si>
-  <si>
-    <t>0.559+/-0.0</t>
-  </si>
-  <si>
-    <t>0.588</t>
-  </si>
-  <si>
-    <t>0.567+/-0.001</t>
-  </si>
-  <si>
-    <t>0.566+/-0.016</t>
-  </si>
-  <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>0.51+/-0.002</t>
-  </si>
-  <si>
-    <t>0.508+/-0.021</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>0.729+/-0.012</t>
-  </si>
-  <si>
-    <t>0.642+/-0.0</t>
-  </si>
-  <si>
-    <t>0.715+/-0.024</t>
-  </si>
-  <si>
-    <t>0.63+/-0.012</t>
-  </si>
-  <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>0.766+/-0.037</t>
-  </si>
-  <si>
-    <t>0.689+/-0.051</t>
-  </si>
-  <si>
-    <t>0.501</t>
-  </si>
-  <si>
-    <t>4.072+/-0.693</t>
-  </si>
-  <si>
-    <t>0.749+/-0.009</t>
-  </si>
-  <si>
-    <t>0.674+/-0.0</t>
-  </si>
-  <si>
-    <t>0.638</t>
-  </si>
-  <si>
-    <t>0.789+/-0.026</t>
-  </si>
-  <si>
-    <t>0.699+/-0.027</t>
-  </si>
-  <si>
-    <t>0.361</t>
-  </si>
-  <si>
-    <t>0.683+/-0.035</t>
-  </si>
-  <si>
-    <t>0.615+/-0.042</t>
-  </si>
-  <si>
-    <t>0.402</t>
-  </si>
-  <si>
-    <t>0.123+/-0.011</t>
-  </si>
-  <si>
-    <t>0.733+/-0.008</t>
-  </si>
-  <si>
-    <t>0.667+/-0.0</t>
-  </si>
-  <si>
-    <t>0.772+/-0.027</t>
-  </si>
-  <si>
-    <t>0.696+/-0.027</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.666+/-0.037</t>
-  </si>
-  <si>
-    <t>0.599+/-0.042</t>
-  </si>
-  <si>
-    <t>0.398</t>
-  </si>
-  <si>
-    <t>0.167+/-0.008</t>
-  </si>
-  <si>
-    <t>0.666+/-0.002</t>
-  </si>
-  <si>
-    <t>0.622+/-0.0</t>
-  </si>
-  <si>
-    <t>0.582</t>
-  </si>
-  <si>
-    <t>0.653+/-0.003</t>
-  </si>
-  <si>
-    <t>0.613+/-0.009</t>
-  </si>
-  <si>
-    <t>0.344</t>
-  </si>
-  <si>
-    <t>0.707+/-0.009</t>
-  </si>
-  <si>
-    <t>0.663+/-0.026</t>
-  </si>
-  <si>
-    <t>0.561</t>
-  </si>
-  <si>
-    <t>33.376+/-1.719</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.994+/-0.001</t>
-  </si>
-  <si>
-    <t>0.695+/-0.0</t>
-  </si>
-  <si>
-    <t>0.537</t>
-  </si>
-  <si>
-    <t>0.998+/-0.006</t>
-  </si>
-  <si>
-    <t>0.642+/-0.006</t>
-  </si>
-  <si>
-    <t>0.345</t>
-  </si>
-  <si>
-    <t>0.989+/-0.004</t>
-  </si>
-  <si>
-    <t>0.884+/-0.012</t>
-  </si>
-  <si>
-    <t>0.003+/-0.001</t>
-  </si>
-  <si>
-    <t>0.563+/-0.002</t>
-  </si>
-  <si>
-    <t>0.556+/-0.0</t>
-  </si>
-  <si>
-    <t>0.569+/-0.002</t>
-  </si>
-  <si>
-    <t>0.562+/-0.014</t>
-  </si>
-  <si>
-    <t>0.371</t>
-  </si>
-  <si>
-    <t>0.519+/-0.005</t>
-  </si>
-  <si>
-    <t>0.513+/-0.016</t>
-  </si>
-  <si>
-    <t>0.513</t>
-  </si>
-  <si>
-    <t>0.14+/-0.036</t>
-  </si>
-  <si>
-    <t>0.549+/-0.002</t>
-  </si>
-  <si>
-    <t>0.547+/-0.0</t>
-  </si>
-  <si>
-    <t>0.599</t>
-  </si>
-  <si>
-    <t>0.564+/-0.003</t>
-  </si>
-  <si>
-    <t>0.56+/-0.021</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>0.435+/-0.014</t>
-  </si>
-  <si>
-    <t>0.433+/-0.026</t>
-  </si>
-  <si>
-    <t>0.449</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.547+/-0.002</t>
-  </si>
-  <si>
-    <t>0.544+/-0.0</t>
-  </si>
-  <si>
-    <t>0.567</t>
-  </si>
-  <si>
-    <t>0.55+/-0.003</t>
-  </si>
-  <si>
-    <t>0.548+/-0.012</t>
-  </si>
-  <si>
-    <t>0.511+/-0.006</t>
-  </si>
-  <si>
-    <t>0.508+/-0.025</t>
-  </si>
-  <si>
-    <t>0.527</t>
-  </si>
-  <si>
-    <t>0.71+/-0.015</t>
-  </si>
-  <si>
-    <t>0.613+/-0.0</t>
-  </si>
-  <si>
-    <t>0.699+/-0.032</t>
-  </si>
-  <si>
-    <t>0.605+/-0.018</t>
-  </si>
-  <si>
-    <t>0.749+/-0.062</t>
-  </si>
-  <si>
-    <t>0.657+/-0.07</t>
-  </si>
-  <si>
-    <t>4.027+/-0.673</t>
-  </si>
-  <si>
-    <t>0.726+/-0.008</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.736+/-0.021</t>
-  </si>
-  <si>
-    <t>0.647+/-0.02</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>0.708+/-0.053</t>
-  </si>
-  <si>
-    <t>0.628+/-0.058</t>
-  </si>
-  <si>
-    <t>0.415</t>
-  </si>
-  <si>
-    <t>0.109+/-0.006</t>
-  </si>
-  <si>
-    <t>0.706+/-0.005</t>
-  </si>
-  <si>
-    <t>0.638+/-0.0</t>
-  </si>
-  <si>
-    <t>0.565</t>
-  </si>
-  <si>
-    <t>0.727+/-0.027</t>
-  </si>
-  <si>
-    <t>0.651+/-0.022</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>0.665+/-0.049</t>
-  </si>
-  <si>
-    <t>0.598+/-0.06</t>
-  </si>
-  <si>
-    <t>0.151+/-0.006</t>
-  </si>
-  <si>
-    <t>0.655+/-0.003</t>
-  </si>
-  <si>
-    <t>0.61+/-0.0</t>
-  </si>
-  <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t>0.643+/-0.003</t>
-  </si>
-  <si>
-    <t>0.601+/-0.013</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>0.7+/-0.008</t>
-  </si>
-  <si>
-    <t>0.655+/-0.019</t>
-  </si>
-  <si>
-    <t>0.557</t>
-  </si>
-  <si>
-    <t>29.843+/-0.298</t>
+    <t>0.751+/-0.032</t>
+  </si>
+  <si>
+    <t>0.338+/-0.026</t>
+  </si>
+  <si>
+    <t>0.423</t>
+  </si>
+  <si>
+    <t>0.654+/-0.064</t>
+  </si>
+  <si>
+    <t>0.337+/-0.07</t>
+  </si>
+  <si>
+    <t>0.143</t>
+  </si>
+  <si>
+    <t>0.812+/-0.011</t>
+  </si>
+  <si>
+    <t>0.541+/-0.019</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.243+/-0.007</t>
+  </si>
+  <si>
+    <t>0.66+/-0.004</t>
+  </si>
+  <si>
+    <t>0.569+/-0.0</t>
+  </si>
+  <si>
+    <t>0.689</t>
+  </si>
+  <si>
+    <t>0.652+/-0.004</t>
+  </si>
+  <si>
+    <t>0.363+/-0.016</t>
+  </si>
+  <si>
+    <t>0.391</t>
+  </si>
+  <si>
+    <t>0.689+/-0.026</t>
+  </si>
+  <si>
+    <t>0.527+/-0.03</t>
+  </si>
+  <si>
+    <t>0.726+/-0.002</t>
+  </si>
+  <si>
+    <t>0.577+/-0.014</t>
+  </si>
+  <si>
+    <t>53.38+/-1.995</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1416,31 +1680,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1448,31 +1712,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1480,31 +1744,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1512,31 +1776,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1544,31 +1808,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1576,31 +1840,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1608,31 +1872,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1640,31 +1904,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1672,31 +1936,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1704,31 +1968,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
         <v>54</v>
       </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" t="s">
-        <v>104</v>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1738,7 +2098,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1778,31 +2138,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="I2" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="J2" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1810,31 +2170,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="I3" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="J3" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1842,31 +2202,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="I4" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="J4" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1874,31 +2234,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="H5" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1906,31 +2266,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="H6" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="I6" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="J6" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1938,31 +2298,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="H7" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="I7" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="J7" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1970,31 +2330,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="H8" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="I8" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="J8" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2002,31 +2362,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="G9" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="H9" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="I9" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="J9" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2034,31 +2394,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="H10" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="I10" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="J10" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2066,31 +2426,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
       </c>
       <c r="G11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I11" t="s">
+        <v>212</v>
+      </c>
+      <c r="J11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" t="s">
         <v>153</v>
       </c>
-      <c r="H11" t="s">
-        <v>163</v>
-      </c>
-      <c r="I11" t="s">
-        <v>173</v>
-      </c>
-      <c r="J11" t="s">
-        <v>182</v>
+      <c r="E12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" t="s">
+        <v>201</v>
+      </c>
+      <c r="I12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" t="s">
+        <v>214</v>
+      </c>
+      <c r="J13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I14" t="s">
+        <v>215</v>
+      </c>
+      <c r="J14" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2100,7 +2556,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2140,31 +2596,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="F2" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="G2" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="H2" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="I2" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="J2" t="s">
-        <v>250</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2172,31 +2628,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="E3" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="F3" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="G3" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="H3" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="I3" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="J3" t="s">
-        <v>251</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2204,31 +2660,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>279</v>
       </c>
       <c r="H4" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="I4" t="s">
-        <v>233</v>
+        <v>304</v>
       </c>
       <c r="J4" t="s">
-        <v>252</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2236,31 +2692,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="E5" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="F5" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="G5" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="H5" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="I5" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="J5" t="s">
-        <v>253</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2268,31 +2724,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c r="E6" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="F6" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
-        <v>225</v>
+        <v>281</v>
       </c>
       <c r="H6" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="I6" t="s">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="J6" t="s">
-        <v>254</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2300,31 +2756,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="E7" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="F7" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="G7" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="H7" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="I7" t="s">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="J7" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2332,31 +2788,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="F8" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="G8" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="H8" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="I8" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="J8" t="s">
-        <v>256</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2364,31 +2820,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="E9" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="G9" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="H9" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="I9" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="J9" t="s">
-        <v>257</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2396,31 +2852,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="E10" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="G10" t="s">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="H10" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="I10" t="s">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="J10" t="s">
-        <v>258</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2428,31 +2884,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="E11" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>273</v>
       </c>
       <c r="G11" t="s">
-        <v>230</v>
+        <v>286</v>
       </c>
       <c r="H11" t="s">
+        <v>299</v>
+      </c>
+      <c r="I11" t="s">
+        <v>311</v>
+      </c>
+      <c r="J11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>287</v>
+      </c>
+      <c r="H12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I12" t="s">
+        <v>312</v>
+      </c>
+      <c r="J12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>240</v>
       </c>
-      <c r="I11" t="s">
-        <v>249</v>
-      </c>
-      <c r="J11" t="s">
-        <v>259</v>
+      <c r="D13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" t="s">
+        <v>288</v>
+      </c>
+      <c r="H13" t="s">
+        <v>246</v>
+      </c>
+      <c r="I13" t="s">
+        <v>313</v>
+      </c>
+      <c r="J13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" t="s">
+        <v>263</v>
+      </c>
+      <c r="F14" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" t="s">
+        <v>289</v>
+      </c>
+      <c r="H14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I14" t="s">
+        <v>314</v>
+      </c>
+      <c r="J14" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -2462,7 +3014,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2502,31 +3054,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>263</v>
+        <v>329</v>
       </c>
       <c r="D2" t="s">
-        <v>272</v>
+        <v>338</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>349</v>
       </c>
       <c r="F2" t="s">
-        <v>291</v>
+        <v>360</v>
       </c>
       <c r="G2" t="s">
-        <v>299</v>
+        <v>373</v>
       </c>
       <c r="H2" t="s">
-        <v>306</v>
+        <v>386</v>
       </c>
       <c r="I2" t="s">
-        <v>315</v>
+        <v>398</v>
       </c>
       <c r="J2" t="s">
-        <v>324</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2534,31 +3086,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>327</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>330</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="E3" t="s">
-        <v>282</v>
+        <v>350</v>
       </c>
       <c r="F3" t="s">
-        <v>292</v>
+        <v>361</v>
       </c>
       <c r="G3" t="s">
-        <v>300</v>
+        <v>374</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>387</v>
       </c>
       <c r="I3" t="s">
-        <v>316</v>
+        <v>399</v>
       </c>
       <c r="J3" t="s">
-        <v>325</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2566,31 +3118,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>328</v>
       </c>
       <c r="C4" t="s">
-        <v>265</v>
+        <v>331</v>
       </c>
       <c r="D4" t="s">
-        <v>252</v>
+        <v>328</v>
       </c>
       <c r="E4" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>362</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>375</v>
       </c>
       <c r="H4" t="s">
-        <v>307</v>
+        <v>189</v>
       </c>
       <c r="I4" t="s">
-        <v>317</v>
+        <v>400</v>
       </c>
       <c r="J4" t="s">
-        <v>326</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2598,31 +3150,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>266</v>
+        <v>332</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>340</v>
       </c>
       <c r="E5" t="s">
-        <v>284</v>
+        <v>351</v>
       </c>
       <c r="F5" t="s">
-        <v>294</v>
+        <v>363</v>
       </c>
       <c r="G5" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="H5" t="s">
-        <v>308</v>
+        <v>388</v>
       </c>
       <c r="I5" t="s">
-        <v>318</v>
+        <v>401</v>
       </c>
       <c r="J5" t="s">
-        <v>327</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2630,31 +3182,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D6" t="s">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="E6" t="s">
-        <v>285</v>
+        <v>352</v>
       </c>
       <c r="F6" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="G6" t="s">
-        <v>302</v>
+        <v>377</v>
       </c>
       <c r="H6" t="s">
-        <v>309</v>
+        <v>389</v>
       </c>
       <c r="I6" t="s">
-        <v>319</v>
+        <v>402</v>
       </c>
       <c r="J6" t="s">
-        <v>328</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2662,31 +3214,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D7" t="s">
-        <v>276</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>286</v>
+        <v>353</v>
       </c>
       <c r="F7" t="s">
-        <v>236</v>
+        <v>365</v>
       </c>
       <c r="G7" t="s">
-        <v>236</v>
+        <v>378</v>
       </c>
       <c r="H7" t="s">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="I7" t="s">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="J7" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2694,31 +3246,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>269</v>
+        <v>333</v>
       </c>
       <c r="D8" t="s">
-        <v>277</v>
+        <v>342</v>
       </c>
       <c r="E8" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
       <c r="F8" t="s">
-        <v>296</v>
+        <v>366</v>
       </c>
       <c r="G8" t="s">
-        <v>303</v>
+        <v>379</v>
       </c>
       <c r="H8" t="s">
-        <v>311</v>
+        <v>391</v>
       </c>
       <c r="I8" t="s">
-        <v>321</v>
+        <v>404</v>
       </c>
       <c r="J8" t="s">
-        <v>330</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2726,31 +3278,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
+        <v>343</v>
       </c>
       <c r="E9" t="s">
-        <v>288</v>
+        <v>355</v>
       </c>
       <c r="F9" t="s">
-        <v>297</v>
+        <v>367</v>
       </c>
       <c r="G9" t="s">
-        <v>304</v>
+        <v>380</v>
       </c>
       <c r="H9" t="s">
-        <v>312</v>
+        <v>392</v>
       </c>
       <c r="I9" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="J9" t="s">
-        <v>331</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2758,31 +3310,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>279</v>
+        <v>344</v>
       </c>
       <c r="E10" t="s">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="G10" t="s">
-        <v>279</v>
+        <v>381</v>
       </c>
       <c r="H10" t="s">
-        <v>313</v>
+        <v>393</v>
       </c>
       <c r="I10" t="s">
-        <v>188</v>
+        <v>406</v>
       </c>
       <c r="J10" t="s">
-        <v>332</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2790,31 +3342,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>271</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>280</v>
+        <v>345</v>
       </c>
       <c r="E11" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>369</v>
       </c>
       <c r="G11" t="s">
-        <v>305</v>
+        <v>382</v>
       </c>
       <c r="H11" t="s">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="I11" t="s">
-        <v>323</v>
+        <v>407</v>
       </c>
       <c r="J11" t="s">
-        <v>333</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E12" t="s">
+        <v>357</v>
+      </c>
+      <c r="F12" t="s">
+        <v>370</v>
+      </c>
+      <c r="G12" t="s">
+        <v>383</v>
+      </c>
+      <c r="H12" t="s">
+        <v>395</v>
+      </c>
+      <c r="I12" t="s">
+        <v>408</v>
+      </c>
+      <c r="J12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13" t="s">
+        <v>358</v>
+      </c>
+      <c r="F13" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" t="s">
+        <v>384</v>
+      </c>
+      <c r="H13" t="s">
+        <v>396</v>
+      </c>
+      <c r="I13" t="s">
+        <v>409</v>
+      </c>
+      <c r="J13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>337</v>
+      </c>
+      <c r="D14" t="s">
+        <v>348</v>
+      </c>
+      <c r="E14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F14" t="s">
+        <v>372</v>
+      </c>
+      <c r="G14" t="s">
+        <v>385</v>
+      </c>
+      <c r="H14" t="s">
+        <v>397</v>
+      </c>
+      <c r="I14" t="s">
+        <v>410</v>
+      </c>
+      <c r="J14" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
